--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,24 +434,27 @@
         <v>semanticRelation</v>
       </c>
       <c r="K1" t="str">
+        <v>gekoppelde_eigenschap</v>
+      </c>
+      <c r="L1" t="str">
         <v>narrower</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>belongsTo</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>definition</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>hasTopConcept</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>note</v>
       </c>
     </row>
@@ -507,6 +510,9 @@
       <c r="Q2" t="str">
         <v>null</v>
       </c>
+      <c r="R2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -540,7 +546,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K3" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
       </c>
       <c r="L3" t="str">
         <v>null</v>
@@ -558,6 +564,9 @@
         <v>null</v>
       </c>
       <c r="Q3" t="str">
+        <v>null</v>
+      </c>
+      <c r="R3" t="str">
         <v>null</v>
       </c>
     </row>
@@ -593,7 +602,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K4" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
       </c>
       <c r="L4" t="str">
         <v>null</v>
@@ -611,6 +620,9 @@
         <v>null</v>
       </c>
       <c r="Q4" t="str">
+        <v>null</v>
+      </c>
+      <c r="R4" t="str">
         <v>null</v>
       </c>
     </row>
@@ -646,7 +658,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K5" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
       </c>
       <c r="L5" t="str">
         <v>null</v>
@@ -664,6 +676,9 @@
         <v>null</v>
       </c>
       <c r="Q5" t="str">
+        <v>null</v>
+      </c>
+      <c r="R5" t="str">
         <v>null</v>
       </c>
     </row>
@@ -699,7 +714,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
       </c>
       <c r="L6" t="str">
         <v>null</v>
@@ -717,6 +732,9 @@
         <v>null</v>
       </c>
       <c r="Q6" t="str">
+        <v>null</v>
+      </c>
+      <c r="R6" t="str">
         <v>null</v>
       </c>
     </row>
@@ -752,7 +770,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
       </c>
       <c r="L7" t="str">
         <v>null</v>
@@ -770,6 +788,9 @@
         <v>null</v>
       </c>
       <c r="Q7" t="str">
+        <v>null</v>
+      </c>
+      <c r="R7" t="str">
         <v>null</v>
       </c>
     </row>
@@ -805,16 +826,16 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
       </c>
       <c r="K8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
       </c>
       <c r="L8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
       </c>
       <c r="M8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
       </c>
       <c r="N8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
       </c>
       <c r="O8" t="str">
         <v>null</v>
@@ -823,6 +844,9 @@
         <v>null</v>
       </c>
       <c r="Q8" t="str">
+        <v>null</v>
+      </c>
+      <c r="R8" t="str">
         <v>null</v>
       </c>
     </row>
@@ -858,7 +882,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
       </c>
       <c r="L9" t="str">
         <v>null</v>
@@ -876,6 +900,9 @@
         <v>null</v>
       </c>
       <c r="Q9" t="str">
+        <v>null</v>
+      </c>
+      <c r="R9" t="str">
         <v>null</v>
       </c>
     </row>
@@ -911,7 +938,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
       </c>
       <c r="L10" t="str">
         <v>null</v>
@@ -929,6 +956,9 @@
         <v>null</v>
       </c>
       <c r="Q10" t="str">
+        <v>null</v>
+      </c>
+      <c r="R10" t="str">
         <v>null</v>
       </c>
     </row>
@@ -964,7 +994,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
       </c>
       <c r="L11" t="str">
         <v>null</v>
@@ -982,6 +1012,9 @@
         <v>null</v>
       </c>
       <c r="Q11" t="str">
+        <v>null</v>
+      </c>
+      <c r="R11" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1017,16 +1050,16 @@
         <v>null</v>
       </c>
       <c r="K12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
       </c>
       <c r="L12" t="str">
         <v>null</v>
       </c>
       <c r="M12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="N12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
       </c>
       <c r="O12" t="str">
         <v>null</v>
@@ -1035,6 +1068,9 @@
         <v>null</v>
       </c>
       <c r="Q12" t="str">
+        <v>null</v>
+      </c>
+      <c r="R12" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1070,7 +1106,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
       </c>
       <c r="L13" t="str">
         <v>null</v>
@@ -1088,6 +1124,9 @@
         <v>null</v>
       </c>
       <c r="Q13" t="str">
+        <v>null</v>
+      </c>
+      <c r="R13" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1123,16 +1162,16 @@
         <v>null</v>
       </c>
       <c r="K14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
       </c>
       <c r="L14" t="str">
         <v>null</v>
       </c>
       <c r="M14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="N14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
       </c>
       <c r="O14" t="str">
         <v>null</v>
@@ -1141,6 +1180,9 @@
         <v>null</v>
       </c>
       <c r="Q14" t="str">
+        <v>null</v>
+      </c>
+      <c r="R14" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1176,16 +1218,16 @@
         <v>null</v>
       </c>
       <c r="K15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
       </c>
       <c r="L15" t="str">
         <v>null</v>
       </c>
       <c r="M15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="N15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
       </c>
       <c r="O15" t="str">
         <v>null</v>
@@ -1194,6 +1236,9 @@
         <v>null</v>
       </c>
       <c r="Q15" t="str">
+        <v>null</v>
+      </c>
+      <c r="R15" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1238,21 +1283,24 @@
         <v>null</v>
       </c>
       <c r="N16" t="str">
+        <v>null</v>
+      </c>
+      <c r="O16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/vochtindringing</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,36 +425,39 @@
         <v>theme</v>
       </c>
       <c r="H1" t="str">
+        <v>altLabel</v>
+      </c>
+      <c r="I1" t="str">
         <v>broader</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>gekoppelde_eigenschap</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>narrower</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>belongsTo</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>definition</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>hasTopConcept</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>note</v>
       </c>
     </row>
@@ -513,6 +516,9 @@
       <c r="R2" t="str">
         <v>null</v>
       </c>
+      <c r="S2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -531,13 +537,13 @@
         <v>buitenmuren</v>
       </c>
       <c r="F3" t="str">
-        <v>Gebrek aan de toestand van buitenmuren.</v>
+        <v>Gebrek aan de toestand van buitenmuren</v>
       </c>
       <c r="G3" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Buitenmuren</v>
       </c>
       <c r="I3" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -546,11 +552,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K3" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L3" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
       </c>
-      <c r="L3" t="str">
-        <v>null</v>
-      </c>
       <c r="M3" t="str">
         <v>null</v>
       </c>
@@ -567,6 +573,9 @@
         <v>null</v>
       </c>
       <c r="R3" t="str">
+        <v>null</v>
+      </c>
+      <c r="S3" t="str">
         <v>null</v>
       </c>
     </row>
@@ -587,13 +596,13 @@
         <v>buitentimmerwerk</v>
       </c>
       <c r="F4" t="str">
-        <v>Gebrek aan de toestand van het buitentimmerwerk.</v>
+        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
       </c>
       <c r="G4" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Buitentimmerwerk</v>
       </c>
       <c r="I4" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -602,11 +611,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K4" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L4" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
       </c>
-      <c r="L4" t="str">
-        <v>null</v>
-      </c>
       <c r="M4" t="str">
         <v>null</v>
       </c>
@@ -623,6 +632,9 @@
         <v>null</v>
       </c>
       <c r="R4" t="str">
+        <v>null</v>
+      </c>
+      <c r="S4" t="str">
         <v>null</v>
       </c>
     </row>
@@ -643,13 +655,13 @@
         <v>dakbedekking</v>
       </c>
       <c r="F5" t="str">
-        <v>Gebrek aan de toestand van de dakbedekking.</v>
+        <v>Gebrek aan de toestand van de dakbedekking</v>
       </c>
       <c r="G5" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Dakbedekking</v>
       </c>
       <c r="I5" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -658,11 +670,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K5" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L5" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
       </c>
-      <c r="L5" t="str">
-        <v>null</v>
-      </c>
       <c r="M5" t="str">
         <v>null</v>
       </c>
@@ -679,6 +691,9 @@
         <v>null</v>
       </c>
       <c r="R5" t="str">
+        <v>null</v>
+      </c>
+      <c r="S5" t="str">
         <v>null</v>
       </c>
     </row>
@@ -699,13 +714,13 @@
         <v>dakgebinte</v>
       </c>
       <c r="F6" t="str">
-        <v>Gebrek aan de toestand van het dakgebinte.</v>
+        <v>Gebrek aan de toestand van het dakgebinte</v>
       </c>
       <c r="G6" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Dakgebinte</v>
       </c>
       <c r="I6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -714,11 +729,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K6" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L6" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
       </c>
-      <c r="L6" t="str">
-        <v>null</v>
-      </c>
       <c r="M6" t="str">
         <v>null</v>
       </c>
@@ -735,6 +750,9 @@
         <v>null</v>
       </c>
       <c r="R6" t="str">
+        <v>null</v>
+      </c>
+      <c r="S6" t="str">
         <v>null</v>
       </c>
     </row>
@@ -755,13 +773,13 @@
         <v>dakgoten</v>
       </c>
       <c r="F7" t="str">
-        <v>Gebrek aan de toestand van de dakgoten.</v>
+        <v>Gebrek aan de toestand van de dakgoten</v>
       </c>
       <c r="G7" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Dakgoten</v>
       </c>
       <c r="I7" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -770,11 +788,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K7" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L7" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
       </c>
-      <c r="L7" t="str">
-        <v>null</v>
-      </c>
       <c r="M7" t="str">
         <v>null</v>
       </c>
@@ -791,6 +809,9 @@
         <v>null</v>
       </c>
       <c r="R7" t="str">
+        <v>null</v>
+      </c>
+      <c r="S7" t="str">
         <v>null</v>
       </c>
     </row>
@@ -811,34 +832,34 @@
         <v>gebouwonderdeel</v>
       </c>
       <c r="F8" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel.</v>
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="G8" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H8" t="str">
-        <v>null</v>
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="I8" t="str">
         <v>null</v>
       </c>
       <c r="J8" t="str">
+        <v>null</v>
+      </c>
+      <c r="K8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
-      </c>
-      <c r="L8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
       </c>
       <c r="M8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
       </c>
       <c r="N8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
       </c>
       <c r="O8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
       </c>
       <c r="P8" t="str">
         <v>null</v>
@@ -847,6 +868,9 @@
         <v>null</v>
       </c>
       <c r="R8" t="str">
+        <v>null</v>
+      </c>
+      <c r="S8" t="str">
         <v>null</v>
       </c>
     </row>
@@ -867,13 +891,13 @@
         <v>kroonlijst</v>
       </c>
       <c r="F9" t="str">
-        <v>Gebrek aan de toestand van de kroonlijst.</v>
+        <v>Gebrek aan de toestand van de kroonlijst</v>
       </c>
       <c r="G9" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Kroonlijst</v>
       </c>
       <c r="I9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -882,11 +906,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K9" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L9" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
       </c>
-      <c r="L9" t="str">
-        <v>null</v>
-      </c>
       <c r="M9" t="str">
         <v>null</v>
       </c>
@@ -903,6 +927,9 @@
         <v>null</v>
       </c>
       <c r="R9" t="str">
+        <v>null</v>
+      </c>
+      <c r="S9" t="str">
         <v>null</v>
       </c>
     </row>
@@ -923,13 +950,13 @@
         <v>liften</v>
       </c>
       <c r="F10" t="str">
-        <v>Gebrek aan de toestand van de liften.</v>
+        <v>Gebrek aan de toestand van de liften</v>
       </c>
       <c r="G10" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Liften</v>
       </c>
       <c r="I10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -938,11 +965,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K10" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L10" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
       </c>
-      <c r="L10" t="str">
-        <v>null</v>
-      </c>
       <c r="M10" t="str">
         <v>null</v>
       </c>
@@ -959,6 +986,9 @@
         <v>null</v>
       </c>
       <c r="R10" t="str">
+        <v>null</v>
+      </c>
+      <c r="S10" t="str">
         <v>null</v>
       </c>
     </row>
@@ -979,13 +1009,13 @@
         <v>schoorstenen</v>
       </c>
       <c r="F11" t="str">
-        <v>Gebrek aan de toestand van schoorstenen.</v>
+        <v>Gebrek aan de toestand van schoorstenen</v>
       </c>
       <c r="G11" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Schoorstenen</v>
       </c>
       <c r="I11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -994,11 +1024,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L11" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
       </c>
-      <c r="L11" t="str">
-        <v>null</v>
-      </c>
       <c r="M11" t="str">
         <v>null</v>
       </c>
@@ -1015,6 +1045,9 @@
         <v>null</v>
       </c>
       <c r="R11" t="str">
+        <v>null</v>
+      </c>
+      <c r="S11" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1035,13 +1068,13 @@
         <v>stabiliteit</v>
       </c>
       <c r="F12" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt.</v>
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="G12" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H12" t="str">
-        <v>null</v>
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="I12" t="str">
         <v>null</v>
@@ -1050,19 +1083,19 @@
         <v>null</v>
       </c>
       <c r="K12" t="str">
+        <v>null</v>
+      </c>
+      <c r="L12" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
       </c>
-      <c r="L12" t="str">
-        <v>null</v>
-      </c>
       <c r="M12" t="str">
         <v>null</v>
       </c>
       <c r="N12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="O12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
       </c>
       <c r="P12" t="str">
         <v>null</v>
@@ -1071,6 +1104,9 @@
         <v>null</v>
       </c>
       <c r="R12" t="str">
+        <v>null</v>
+      </c>
+      <c r="S12" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1091,13 +1127,13 @@
         <v>trappen</v>
       </c>
       <c r="F13" t="str">
-        <v>Gebrek aan de toestand van de trappen.</v>
+        <v>Gebrek aan de toestand van de trappen</v>
       </c>
       <c r="G13" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>Trappen</v>
       </c>
       <c r="I13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
@@ -1106,11 +1142,11 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
       </c>
       <c r="K13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+      </c>
+      <c r="L13" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
       </c>
-      <c r="L13" t="str">
-        <v>null</v>
-      </c>
       <c r="M13" t="str">
         <v>null</v>
       </c>
@@ -1127,6 +1163,9 @@
         <v>null</v>
       </c>
       <c r="R13" t="str">
+        <v>null</v>
+      </c>
+      <c r="S13" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1147,13 +1186,13 @@
         <v>veiligheid</v>
       </c>
       <c r="F14" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt.</v>
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="G14" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H14" t="str">
-        <v>null</v>
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="I14" t="str">
         <v>null</v>
@@ -1162,19 +1201,19 @@
         <v>null</v>
       </c>
       <c r="K14" t="str">
+        <v>null</v>
+      </c>
+      <c r="L14" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
       </c>
-      <c r="L14" t="str">
-        <v>null</v>
-      </c>
       <c r="M14" t="str">
         <v>null</v>
       </c>
       <c r="N14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="O14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
       </c>
       <c r="P14" t="str">
         <v>null</v>
@@ -1183,6 +1222,9 @@
         <v>null</v>
       </c>
       <c r="R14" t="str">
+        <v>null</v>
+      </c>
+      <c r="S14" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1203,13 +1245,13 @@
         <v>vochtindringing</v>
       </c>
       <c r="F15" t="str">
-        <v>Gebrek dat leidt tot vochtindringing.</v>
+        <v>Gebrek dat leidt tot vochtindringing</v>
       </c>
       <c r="G15" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="H15" t="str">
-        <v>null</v>
+        <v>Gebrek dat leidt tot vochtindringing</v>
       </c>
       <c r="I15" t="str">
         <v>null</v>
@@ -1218,19 +1260,19 @@
         <v>null</v>
       </c>
       <c r="K15" t="str">
+        <v>null</v>
+      </c>
+      <c r="L15" t="str">
         <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
       </c>
-      <c r="L15" t="str">
-        <v>null</v>
-      </c>
       <c r="M15" t="str">
         <v>null</v>
       </c>
       <c r="N15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="O15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
       </c>
       <c r="P15" t="str">
         <v>null</v>
@@ -1239,6 +1281,9 @@
         <v>null</v>
       </c>
       <c r="R15" t="str">
+        <v>null</v>
+      </c>
+      <c r="S15" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1286,21 +1331,24 @@
         <v>null</v>
       </c>
       <c r="O16" t="str">
+        <v>null</v>
+      </c>
+      <c r="P16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/vochtindringing</v>
       </c>
-      <c r="R16" t="str">
+      <c r="S16" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,10 +410,10 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
+        <v>seeAlso</v>
+      </c>
+      <c r="D1" t="str">
         <v>inScheme</v>
-      </c>
-      <c r="D1" t="str">
-        <v>member</v>
       </c>
       <c r="E1" t="str">
         <v>notation</v>
@@ -422,7 +422,7 @@
         <v>prefLabel</v>
       </c>
       <c r="G1" t="str">
-        <v>theme</v>
+        <v>topConceptOf</v>
       </c>
       <c r="H1" t="str">
         <v>altLabel</v>
@@ -437,16 +437,16 @@
         <v>semanticRelation</v>
       </c>
       <c r="L1" t="str">
+        <v>theme</v>
+      </c>
+      <c r="M1" t="str">
         <v>gekoppelde_eigenschap</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>narrower</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>narrowerTransitive</v>
-      </c>
-      <c r="O1" t="str">
-        <v>topConceptOf</v>
       </c>
       <c r="P1" t="str">
         <v>belongsTo</v>
@@ -463,25 +463,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/collection/verwaarlozing/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E2" t="str">
-        <v>co_verwaarlozing</v>
+        <v>aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="F2" t="str">
-        <v>Collectie van concepten die gebruikt worden binnen de applicatie verwaarlozing en leegstand.</v>
+        <v>aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="G2" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H2" t="str">
         <v>null</v>
@@ -522,40 +522,40 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D3" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E3" t="str">
-        <v>buitenmuren</v>
+        <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="F3" t="str">
-        <v>Gebrek aan de toestand van buitenmuren</v>
+        <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="G3" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H3" t="str">
-        <v>Buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="I3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="M3" t="str">
         <v>null</v>
@@ -581,40 +581,40 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="D4" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E4" t="str">
-        <v>buitentimmerwerk</v>
+        <v>aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="F4" t="str">
-        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
+        <v>aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="G4" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H4" t="str">
-        <v>Buitentimmerwerk</v>
+        <v>null</v>
       </c>
       <c r="I4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
+        <v>null</v>
       </c>
       <c r="M4" t="str">
         <v>null</v>
@@ -640,40 +640,40 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="D5" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E5" t="str">
-        <v>dakbedekking</v>
+        <v>aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="F5" t="str">
-        <v>Gebrek aan de toestand van de dakbedekking</v>
+        <v>aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="G5" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H5" t="str">
-        <v>Dakbedekking</v>
+        <v>null</v>
       </c>
       <c r="I5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
+        <v>null</v>
       </c>
       <c r="M5" t="str">
         <v>null</v>
@@ -699,40 +699,40 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E6" t="str">
-        <v>dakgebinte</v>
+        <v>beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="F6" t="str">
-        <v>Gebrek aan de toestand van het dakgebinte</v>
+        <v>beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="G6" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H6" t="str">
-        <v>Dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="I6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="M6" t="str">
         <v>null</v>
@@ -758,40 +758,40 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E7" t="str">
-        <v>dakgoten</v>
+        <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="F7" t="str">
-        <v>Gebrek aan de toestand van de dakgoten</v>
+        <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="G7" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H7" t="str">
-        <v>Dakgoten</v>
+        <v>null</v>
       </c>
       <c r="I7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
+        <v>null</v>
       </c>
       <c r="M7" t="str">
         <v>null</v>
@@ -817,28 +817,28 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E8" t="str">
-        <v>gebouwonderdeel</v>
+        <v>beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="F8" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="G8" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H8" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="I8" t="str">
         <v>null</v>
@@ -847,19 +847,19 @@
         <v>null</v>
       </c>
       <c r="K8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
+        <v>null</v>
       </c>
       <c r="L8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
+        <v>null</v>
       </c>
       <c r="N8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
+        <v>null</v>
       </c>
       <c r="O8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="P8" t="str">
         <v>null</v>
@@ -876,40 +876,40 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/kroonlijst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="D9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E9" t="str">
-        <v>kroonlijst</v>
+        <v>geregistreerd_in_inventaris</v>
       </c>
       <c r="F9" t="str">
-        <v>Gebrek aan de toestand van de kroonlijst</v>
+        <v>geregistreerd in inventaris</v>
       </c>
       <c r="G9" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H9" t="str">
-        <v>Kroonlijst</v>
+        <v>null</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
+        <v>null</v>
       </c>
       <c r="M9" t="str">
         <v>null</v>
@@ -935,40 +935,40 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/liften</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="D10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E10" t="str">
-        <v>liften</v>
+        <v>geschrapt_uit_inventaris</v>
       </c>
       <c r="F10" t="str">
-        <v>Gebrek aan de toestand van de liften</v>
+        <v>geschrapt_uit_inventaris</v>
       </c>
       <c r="G10" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H10" t="str">
-        <v>Liften</v>
+        <v>null</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
+        <v>null</v>
       </c>
       <c r="M10" t="str">
         <v>null</v>
@@ -994,40 +994,40 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/schoorstenen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="D11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E11" t="str">
-        <v>schoorstenen</v>
+        <v>heffing_opgeschort</v>
       </c>
       <c r="F11" t="str">
-        <v>Gebrek aan de toestand van schoorstenen</v>
+        <v>heffing_opgeschort</v>
       </c>
       <c r="G11" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H11" t="str">
-        <v>Schoorstenen</v>
+        <v>null</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
+        <v>null</v>
       </c>
       <c r="M11" t="str">
         <v>null</v>
@@ -1053,28 +1053,28 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/stabiliteit</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="D12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E12" t="str">
-        <v>stabiliteit</v>
+        <v>niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="F12" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="G12" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H12" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>null</v>
       </c>
       <c r="I12" t="str">
         <v>null</v>
@@ -1086,7 +1086,7 @@
         <v>null</v>
       </c>
       <c r="L12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
+        <v>null</v>
       </c>
       <c r="M12" t="str">
         <v>null</v>
@@ -1095,7 +1095,7 @@
         <v>null</v>
       </c>
       <c r="O12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="P12" t="str">
         <v>null</v>
@@ -1112,40 +1112,40 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="D13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="E13" t="str">
-        <v>trappen</v>
+        <v>registratie_ingetrokken</v>
       </c>
       <c r="F13" t="str">
-        <v>Gebrek aan de toestand van de trappen</v>
+        <v>registratie_ingetrokken</v>
       </c>
       <c r="G13" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
       </c>
       <c r="H13" t="str">
-        <v>Trappen</v>
+        <v>null</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
+        <v>null</v>
       </c>
       <c r="M13" t="str">
         <v>null</v>
@@ -1171,28 +1171,28 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/veiligheid</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="D14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
       </c>
       <c r="E14" t="str">
-        <v>veiligheid</v>
+        <v>null</v>
       </c>
       <c r="F14" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>Aanvraag opschorting heffing</v>
       </c>
       <c r="G14" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
       </c>
       <c r="H14" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>null</v>
       </c>
       <c r="I14" t="str">
         <v>null</v>
@@ -1204,7 +1204,7 @@
         <v>null</v>
       </c>
       <c r="L14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
+        <v>null</v>
       </c>
       <c r="M14" t="str">
         <v>null</v>
@@ -1213,7 +1213,7 @@
         <v>null</v>
       </c>
       <c r="O14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="P14" t="str">
         <v>null</v>
@@ -1230,28 +1230,28 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="D15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
       </c>
       <c r="E15" t="str">
-        <v>vochtindringing</v>
+        <v>null</v>
       </c>
       <c r="F15" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>Aanvraag schrapping</v>
       </c>
       <c r="G15" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
       </c>
       <c r="H15" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>null</v>
       </c>
       <c r="I15" t="str">
         <v>null</v>
@@ -1263,7 +1263,7 @@
         <v>null</v>
       </c>
       <c r="L15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
+        <v>null</v>
       </c>
       <c r="M15" t="str">
         <v>null</v>
@@ -1272,7 +1272,7 @@
         <v>null</v>
       </c>
       <c r="O15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="P15" t="str">
         <v>null</v>
@@ -1289,66 +1289,1069 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/verwaarlozing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="B16" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+      </c>
+      <c r="E16" t="str">
+        <v>null</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Beroep tegen registratie</v>
+      </c>
+      <c r="G16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+      </c>
+      <c r="H16" t="str">
+        <v>null</v>
+      </c>
+      <c r="I16" t="str">
+        <v>null</v>
+      </c>
+      <c r="J16" t="str">
+        <v>null</v>
+      </c>
+      <c r="K16" t="str">
+        <v>null</v>
+      </c>
+      <c r="L16" t="str">
+        <v>null</v>
+      </c>
+      <c r="M16" t="str">
+        <v>null</v>
+      </c>
+      <c r="N16" t="str">
+        <v>null</v>
+      </c>
+      <c r="O16" t="str">
+        <v>null</v>
+      </c>
+      <c r="P16" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>null</v>
+      </c>
+      <c r="R16" t="str">
+        <v>null</v>
+      </c>
+      <c r="S16" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+      </c>
+      <c r="B17" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
+      </c>
+      <c r="D17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+      </c>
+      <c r="E17" t="str">
+        <v>null</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Registreren</v>
+      </c>
+      <c r="G17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+      </c>
+      <c r="H17" t="str">
+        <v>null</v>
+      </c>
+      <c r="I17" t="str">
+        <v>null</v>
+      </c>
+      <c r="J17" t="str">
+        <v>null</v>
+      </c>
+      <c r="K17" t="str">
+        <v>null</v>
+      </c>
+      <c r="L17" t="str">
+        <v>null</v>
+      </c>
+      <c r="M17" t="str">
+        <v>null</v>
+      </c>
+      <c r="N17" t="str">
+        <v>null</v>
+      </c>
+      <c r="O17" t="str">
+        <v>null</v>
+      </c>
+      <c r="P17" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>null</v>
+      </c>
+      <c r="R17" t="str">
+        <v>null</v>
+      </c>
+      <c r="S17" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
+      </c>
+      <c r="B18" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C18" t="str">
+        <v>null</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E18" t="str">
+        <v>buitenmuren</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Gebrek aan de toestand van buitenmuren</v>
+      </c>
+      <c r="G18" t="str">
+        <v>null</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Buitenmuren</v>
+      </c>
+      <c r="I18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L18" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
+      </c>
+      <c r="N18" t="str">
+        <v>null</v>
+      </c>
+      <c r="O18" t="str">
+        <v>null</v>
+      </c>
+      <c r="P18" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>null</v>
+      </c>
+      <c r="R18" t="str">
+        <v>null</v>
+      </c>
+      <c r="S18" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
+      </c>
+      <c r="B19" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C19" t="str">
+        <v>null</v>
+      </c>
+      <c r="D19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E19" t="str">
+        <v>buitentimmerwerk</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
+      </c>
+      <c r="G19" t="str">
+        <v>null</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Buitentimmerwerk</v>
+      </c>
+      <c r="I19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L19" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
+      </c>
+      <c r="N19" t="str">
+        <v>null</v>
+      </c>
+      <c r="O19" t="str">
+        <v>null</v>
+      </c>
+      <c r="P19" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>null</v>
+      </c>
+      <c r="R19" t="str">
+        <v>null</v>
+      </c>
+      <c r="S19" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
+      </c>
+      <c r="B20" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C20" t="str">
+        <v>null</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E20" t="str">
+        <v>dakbedekking</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Gebrek aan de toestand van de dakbedekking</v>
+      </c>
+      <c r="G20" t="str">
+        <v>null</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Dakbedekking</v>
+      </c>
+      <c r="I20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L20" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
+      </c>
+      <c r="N20" t="str">
+        <v>null</v>
+      </c>
+      <c r="O20" t="str">
+        <v>null</v>
+      </c>
+      <c r="P20" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>null</v>
+      </c>
+      <c r="R20" t="str">
+        <v>null</v>
+      </c>
+      <c r="S20" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
+      </c>
+      <c r="B21" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C21" t="str">
+        <v>null</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E21" t="str">
+        <v>dakgebinte</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Gebrek aan de toestand van het dakgebinte</v>
+      </c>
+      <c r="G21" t="str">
+        <v>null</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Dakgebinte</v>
+      </c>
+      <c r="I21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L21" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
+      </c>
+      <c r="N21" t="str">
+        <v>null</v>
+      </c>
+      <c r="O21" t="str">
+        <v>null</v>
+      </c>
+      <c r="P21" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>null</v>
+      </c>
+      <c r="R21" t="str">
+        <v>null</v>
+      </c>
+      <c r="S21" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
+      </c>
+      <c r="B22" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C22" t="str">
+        <v>null</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E22" t="str">
+        <v>dakgoten</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Gebrek aan de toestand van de dakgoten</v>
+      </c>
+      <c r="G22" t="str">
+        <v>null</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Dakgoten</v>
+      </c>
+      <c r="I22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L22" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
+      </c>
+      <c r="N22" t="str">
+        <v>null</v>
+      </c>
+      <c r="O22" t="str">
+        <v>null</v>
+      </c>
+      <c r="P22" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>null</v>
+      </c>
+      <c r="R22" t="str">
+        <v>null</v>
+      </c>
+      <c r="S22" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="B23" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C23" t="str">
+        <v>null</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E23" t="str">
+        <v>gebouwonderdeel</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+      </c>
+      <c r="G23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+      </c>
+      <c r="I23" t="str">
+        <v>null</v>
+      </c>
+      <c r="J23" t="str">
+        <v>null</v>
+      </c>
+      <c r="K23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="L23" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
+      </c>
+      <c r="N23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="O23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="P23" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>null</v>
+      </c>
+      <c r="R23" t="str">
+        <v>null</v>
+      </c>
+      <c r="S23" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
+      </c>
+      <c r="B24" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C24" t="str">
+        <v>null</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E24" t="str">
+        <v>kroonlijst</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Gebrek aan de toestand van de kroonlijst</v>
+      </c>
+      <c r="G24" t="str">
+        <v>null</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Kroonlijst</v>
+      </c>
+      <c r="I24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L24" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
+      </c>
+      <c r="N24" t="str">
+        <v>null</v>
+      </c>
+      <c r="O24" t="str">
+        <v>null</v>
+      </c>
+      <c r="P24" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>null</v>
+      </c>
+      <c r="R24" t="str">
+        <v>null</v>
+      </c>
+      <c r="S24" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
+      </c>
+      <c r="B25" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C25" t="str">
+        <v>null</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E25" t="str">
+        <v>liften</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Gebrek aan de toestand van de liften</v>
+      </c>
+      <c r="G25" t="str">
+        <v>null</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Liften</v>
+      </c>
+      <c r="I25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L25" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
+      </c>
+      <c r="N25" t="str">
+        <v>null</v>
+      </c>
+      <c r="O25" t="str">
+        <v>null</v>
+      </c>
+      <c r="P25" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>null</v>
+      </c>
+      <c r="R25" t="str">
+        <v>null</v>
+      </c>
+      <c r="S25" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
+      </c>
+      <c r="B26" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C26" t="str">
+        <v>null</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E26" t="str">
+        <v>schoorstenen</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Gebrek aan de toestand van schoorstenen</v>
+      </c>
+      <c r="G26" t="str">
+        <v>null</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Schoorstenen</v>
+      </c>
+      <c r="I26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L26" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
+      </c>
+      <c r="N26" t="str">
+        <v>null</v>
+      </c>
+      <c r="O26" t="str">
+        <v>null</v>
+      </c>
+      <c r="P26" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>null</v>
+      </c>
+      <c r="R26" t="str">
+        <v>null</v>
+      </c>
+      <c r="S26" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
+      </c>
+      <c r="B27" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C27" t="str">
+        <v>null</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E27" t="str">
+        <v>stabiliteit</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+      </c>
+      <c r="G27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+      </c>
+      <c r="I27" t="str">
+        <v>null</v>
+      </c>
+      <c r="J27" t="str">
+        <v>null</v>
+      </c>
+      <c r="K27" t="str">
+        <v>null</v>
+      </c>
+      <c r="L27" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
+      </c>
+      <c r="N27" t="str">
+        <v>null</v>
+      </c>
+      <c r="O27" t="str">
+        <v>null</v>
+      </c>
+      <c r="P27" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>null</v>
+      </c>
+      <c r="R27" t="str">
+        <v>null</v>
+      </c>
+      <c r="S27" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="B28" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C28" t="str">
+        <v>null</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E28" t="str">
+        <v>trappen</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Gebrek aan de toestand van de trappen</v>
+      </c>
+      <c r="G28" t="str">
+        <v>null</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Trappen</v>
+      </c>
+      <c r="I28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="J28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L28" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
+      </c>
+      <c r="N28" t="str">
+        <v>null</v>
+      </c>
+      <c r="O28" t="str">
+        <v>null</v>
+      </c>
+      <c r="P28" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>null</v>
+      </c>
+      <c r="R28" t="str">
+        <v>null</v>
+      </c>
+      <c r="S28" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
+      </c>
+      <c r="B29" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C29" t="str">
+        <v>null</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E29" t="str">
+        <v>veiligheid</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+      </c>
+      <c r="G29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+      </c>
+      <c r="I29" t="str">
+        <v>null</v>
+      </c>
+      <c r="J29" t="str">
+        <v>null</v>
+      </c>
+      <c r="K29" t="str">
+        <v>null</v>
+      </c>
+      <c r="L29" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
+      </c>
+      <c r="N29" t="str">
+        <v>null</v>
+      </c>
+      <c r="O29" t="str">
+        <v>null</v>
+      </c>
+      <c r="P29" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>null</v>
+      </c>
+      <c r="R29" t="str">
+        <v>null</v>
+      </c>
+      <c r="S29" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+      </c>
+      <c r="B30" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C30" t="str">
+        <v>null</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="E30" t="str">
+        <v>vochtindringing</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Gebrek dat leidt tot vochtindringing</v>
+      </c>
+      <c r="G30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Gebrek dat leidt tot vochtindringing</v>
+      </c>
+      <c r="I30" t="str">
+        <v>null</v>
+      </c>
+      <c r="J30" t="str">
+        <v>null</v>
+      </c>
+      <c r="K30" t="str">
+        <v>null</v>
+      </c>
+      <c r="L30" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
+      </c>
+      <c r="N30" t="str">
+        <v>null</v>
+      </c>
+      <c r="O30" t="str">
+        <v>null</v>
+      </c>
+      <c r="P30" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>null</v>
+      </c>
+      <c r="R30" t="str">
+        <v>null</v>
+      </c>
+      <c r="S30" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+      </c>
+      <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C16" t="str">
-        <v>null</v>
-      </c>
-      <c r="D16" t="str">
-        <v>null</v>
-      </c>
-      <c r="E16" t="str">
-        <v>cs_verwaarlozing</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="C31" t="str">
+        <v>null</v>
+      </c>
+      <c r="D31" t="str">
+        <v>null</v>
+      </c>
+      <c r="E31" t="str">
+        <v>cs_beslissing</v>
+      </c>
+      <c r="F31" t="str">
         <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G31" t="str">
+        <v>null</v>
+      </c>
+      <c r="H31" t="str">
+        <v>null</v>
+      </c>
+      <c r="I31" t="str">
+        <v>null</v>
+      </c>
+      <c r="J31" t="str">
+        <v>null</v>
+      </c>
+      <c r="K31" t="str">
+        <v>null</v>
+      </c>
+      <c r="L31" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="H16" t="str">
-        <v>null</v>
-      </c>
-      <c r="I16" t="str">
-        <v>null</v>
-      </c>
-      <c r="J16" t="str">
-        <v>null</v>
-      </c>
-      <c r="K16" t="str">
-        <v>null</v>
-      </c>
-      <c r="L16" t="str">
-        <v>null</v>
-      </c>
-      <c r="M16" t="str">
-        <v>null</v>
-      </c>
-      <c r="N16" t="str">
-        <v>null</v>
-      </c>
-      <c r="O16" t="str">
-        <v>null</v>
-      </c>
-      <c r="P16" t="str">
+      <c r="M31" t="str">
+        <v>null</v>
+      </c>
+      <c r="N31" t="str">
+        <v>null</v>
+      </c>
+      <c r="O31" t="str">
+        <v>null</v>
+      </c>
+      <c r="P31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="Q31" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
-      <c r="R16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/verwaarlozing/vochtindringing</v>
-      </c>
-      <c r="S16" t="str">
+      <c r="R31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+      </c>
+      <c r="S31" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+      </c>
+      <c r="B32" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C32" t="str">
+        <v>null</v>
+      </c>
+      <c r="D32" t="str">
+        <v>null</v>
+      </c>
+      <c r="E32" t="str">
+        <v>cs_procedure</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+      </c>
+      <c r="G32" t="str">
+        <v>null</v>
+      </c>
+      <c r="H32" t="str">
+        <v>null</v>
+      </c>
+      <c r="I32" t="str">
+        <v>null</v>
+      </c>
+      <c r="J32" t="str">
+        <v>null</v>
+      </c>
+      <c r="K32" t="str">
+        <v>null</v>
+      </c>
+      <c r="L32" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M32" t="str">
+        <v>null</v>
+      </c>
+      <c r="N32" t="str">
+        <v>null</v>
+      </c>
+      <c r="O32" t="str">
+        <v>null</v>
+      </c>
+      <c r="P32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+      <c r="R32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+      </c>
+      <c r="S32" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="B33" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C33" t="str">
+        <v>null</v>
+      </c>
+      <c r="D33" t="str">
+        <v>null</v>
+      </c>
+      <c r="E33" t="str">
+        <v>cs_uitgesproken_gebrek</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+      </c>
+      <c r="G33" t="str">
+        <v>null</v>
+      </c>
+      <c r="H33" t="str">
+        <v>null</v>
+      </c>
+      <c r="I33" t="str">
+        <v>null</v>
+      </c>
+      <c r="J33" t="str">
+        <v>null</v>
+      </c>
+      <c r="K33" t="str">
+        <v>null</v>
+      </c>
+      <c r="L33" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M33" t="str">
+        <v>null</v>
+      </c>
+      <c r="N33" t="str">
+        <v>null</v>
+      </c>
+      <c r="O33" t="str">
+        <v>null</v>
+      </c>
+      <c r="P33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+      <c r="R33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+      </c>
+      <c r="S33" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2304,7 +2304,7 @@
         <v>null</v>
       </c>
       <c r="E33" t="str">
-        <v>cs_uitgesproken_gebrek</v>
+        <v>cs_rol</v>
       </c>
       <c r="F33" t="str">
         <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
@@ -2343,15 +2343,310 @@
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="R33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+        <v>rol:curator|rol:eigenaar|rol:instumenterend_ambtenaar|rol:raadsman</v>
       </c>
       <c r="S33" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C34" t="str">
+        <v>null</v>
+      </c>
+      <c r="D34" t="str">
+        <v>null</v>
+      </c>
+      <c r="E34" t="str">
+        <v>cs_uitgesproken_gebrek</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+      </c>
+      <c r="G34" t="str">
+        <v>null</v>
+      </c>
+      <c r="H34" t="str">
+        <v>null</v>
+      </c>
+      <c r="I34" t="str">
+        <v>null</v>
+      </c>
+      <c r="J34" t="str">
+        <v>null</v>
+      </c>
+      <c r="K34" t="str">
+        <v>null</v>
+      </c>
+      <c r="L34" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="M34" t="str">
+        <v>null</v>
+      </c>
+      <c r="N34" t="str">
+        <v>null</v>
+      </c>
+      <c r="O34" t="str">
+        <v>null</v>
+      </c>
+      <c r="P34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+      <c r="R34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+      </c>
+      <c r="S34" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>rol:curator</v>
+      </c>
+      <c r="B35" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C35" t="str">
+        <v>null</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+      </c>
+      <c r="E35" t="str">
+        <v>null</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Curator</v>
+      </c>
+      <c r="G35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+      </c>
+      <c r="H35" t="str">
+        <v>null</v>
+      </c>
+      <c r="I35" t="str">
+        <v>null</v>
+      </c>
+      <c r="J35" t="str">
+        <v>null</v>
+      </c>
+      <c r="K35" t="str">
+        <v>null</v>
+      </c>
+      <c r="L35" t="str">
+        <v>null</v>
+      </c>
+      <c r="M35" t="str">
+        <v>null</v>
+      </c>
+      <c r="N35" t="str">
+        <v>null</v>
+      </c>
+      <c r="O35" t="str">
+        <v>null</v>
+      </c>
+      <c r="P35" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>null</v>
+      </c>
+      <c r="R35" t="str">
+        <v>null</v>
+      </c>
+      <c r="S35" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>rol:eigenaar</v>
+      </c>
+      <c r="B36" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C36" t="str">
+        <v>null</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+      </c>
+      <c r="E36" t="str">
+        <v>null</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Eigenaar</v>
+      </c>
+      <c r="G36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+      </c>
+      <c r="H36" t="str">
+        <v>null</v>
+      </c>
+      <c r="I36" t="str">
+        <v>null</v>
+      </c>
+      <c r="J36" t="str">
+        <v>null</v>
+      </c>
+      <c r="K36" t="str">
+        <v>null</v>
+      </c>
+      <c r="L36" t="str">
+        <v>null</v>
+      </c>
+      <c r="M36" t="str">
+        <v>null</v>
+      </c>
+      <c r="N36" t="str">
+        <v>null</v>
+      </c>
+      <c r="O36" t="str">
+        <v>null</v>
+      </c>
+      <c r="P36" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
+      </c>
+      <c r="R36" t="str">
+        <v>null</v>
+      </c>
+      <c r="S36" t="str">
+        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>rol:instumenterend_ambtenaar</v>
+      </c>
+      <c r="B37" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C37" t="str">
+        <v>null</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+      </c>
+      <c r="E37" t="str">
+        <v>null</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Instrumenterend ambtenaar</v>
+      </c>
+      <c r="G37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+      </c>
+      <c r="H37" t="str">
+        <v>null</v>
+      </c>
+      <c r="I37" t="str">
+        <v>null</v>
+      </c>
+      <c r="J37" t="str">
+        <v>null</v>
+      </c>
+      <c r="K37" t="str">
+        <v>null</v>
+      </c>
+      <c r="L37" t="str">
+        <v>null</v>
+      </c>
+      <c r="M37" t="str">
+        <v>null</v>
+      </c>
+      <c r="N37" t="str">
+        <v>null</v>
+      </c>
+      <c r="O37" t="str">
+        <v>null</v>
+      </c>
+      <c r="P37" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
+      </c>
+      <c r="R37" t="str">
+        <v>null</v>
+      </c>
+      <c r="S37" t="str">
+        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>rol:raadsman</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C38" t="str">
+        <v>null</v>
+      </c>
+      <c r="D38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+      </c>
+      <c r="E38" t="str">
+        <v>null</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Raadsman</v>
+      </c>
+      <c r="G38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+      </c>
+      <c r="H38" t="str">
+        <v>null</v>
+      </c>
+      <c r="I38" t="str">
+        <v>null</v>
+      </c>
+      <c r="J38" t="str">
+        <v>null</v>
+      </c>
+      <c r="K38" t="str">
+        <v>null</v>
+      </c>
+      <c r="L38" t="str">
+        <v>null</v>
+      </c>
+      <c r="M38" t="str">
+        <v>null</v>
+      </c>
+      <c r="N38" t="str">
+        <v>null</v>
+      </c>
+      <c r="O38" t="str">
+        <v>null</v>
+      </c>
+      <c r="P38" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>null</v>
+      </c>
+      <c r="R38" t="str">
+        <v>null</v>
+      </c>
+      <c r="S38" t="str">
+        <v>null</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -891,7 +891,7 @@
         <v>geregistreerd_in_inventaris</v>
       </c>
       <c r="F9" t="str">
-        <v>geregistreerd in inventaris</v>
+        <v>Geregistreerd in inventaris</v>
       </c>
       <c r="G9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
@@ -1068,7 +1068,7 @@
         <v>niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="F12" t="str">
-        <v>niet_geregistreerd_in_inventaris</v>
+        <v>Niet geregistreerd in inventaris</v>
       </c>
       <c r="G12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -472,7 +472,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E2" t="str">
         <v>aanvraag_opschorting_heffing_aanvaard</v>
@@ -481,7 +481,7 @@
         <v>aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="G2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H2" t="str">
         <v>null</v>
@@ -531,7 +531,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E3" t="str">
         <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
@@ -540,7 +540,7 @@
         <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="G3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H3" t="str">
         <v>null</v>
@@ -590,7 +590,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E4" t="str">
         <v>aanvraag_schrapping_aanvaard</v>
@@ -599,7 +599,7 @@
         <v>aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="G4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H4" t="str">
         <v>null</v>
@@ -649,7 +649,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E5" t="str">
         <v>aanvraag_schrapping_niet_aanvaard</v>
@@ -658,7 +658,7 @@
         <v>aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="G5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H5" t="str">
         <v>null</v>
@@ -708,7 +708,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E6" t="str">
         <v>beroep_tegen_registratie_ingewilligd</v>
@@ -717,7 +717,7 @@
         <v>beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="G6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H6" t="str">
         <v>null</v>
@@ -767,7 +767,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E7" t="str">
         <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
@@ -776,7 +776,7 @@
         <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H7" t="str">
         <v>null</v>
@@ -826,7 +826,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E8" t="str">
         <v>beroep_tegen_registratie_verworpen</v>
@@ -835,7 +835,7 @@
         <v>beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="G8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H8" t="str">
         <v>null</v>
@@ -885,7 +885,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E9" t="str">
         <v>geregistreerd_in_inventaris</v>
@@ -894,7 +894,7 @@
         <v>Geregistreerd in inventaris</v>
       </c>
       <c r="G9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H9" t="str">
         <v>null</v>
@@ -944,7 +944,7 @@
         <v>null</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E10" t="str">
         <v>geschrapt_uit_inventaris</v>
@@ -953,7 +953,7 @@
         <v>geschrapt_uit_inventaris</v>
       </c>
       <c r="G10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H10" t="str">
         <v>null</v>
@@ -1003,7 +1003,7 @@
         <v>null</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E11" t="str">
         <v>heffing_opgeschort</v>
@@ -1012,7 +1012,7 @@
         <v>heffing_opgeschort</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H11" t="str">
         <v>null</v>
@@ -1062,7 +1062,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E12" t="str">
         <v>niet_geregistreerd_in_inventaris</v>
@@ -1071,7 +1071,7 @@
         <v>Niet geregistreerd in inventaris</v>
       </c>
       <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H12" t="str">
         <v>null</v>
@@ -1121,7 +1121,7 @@
         <v>null</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E13" t="str">
         <v>registratie_ingetrokken</v>
@@ -1130,7 +1130,7 @@
         <v>registratie_ingetrokken</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H13" t="str">
         <v>null</v>
@@ -1180,7 +1180,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="D14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E14" t="str">
         <v>null</v>
@@ -1189,7 +1189,7 @@
         <v>Aanvraag opschorting heffing</v>
       </c>
       <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H14" t="str">
         <v>null</v>
@@ -1239,7 +1239,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="D15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E15" t="str">
         <v>null</v>
@@ -1248,7 +1248,7 @@
         <v>Aanvraag schrapping</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H15" t="str">
         <v>null</v>
@@ -1298,7 +1298,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E16" t="str">
         <v>null</v>
@@ -1307,7 +1307,7 @@
         <v>Beroep tegen registratie</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H16" t="str">
         <v>null</v>
@@ -1357,7 +1357,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="D17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E17" t="str">
         <v>null</v>
@@ -1366,7 +1366,7 @@
         <v>Registreren</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H17" t="str">
         <v>null</v>
@@ -1416,7 +1416,7 @@
         <v>null</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E18" t="str">
         <v>buitenmuren</v>
@@ -1475,7 +1475,7 @@
         <v>null</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E19" t="str">
         <v>buitentimmerwerk</v>
@@ -1534,7 +1534,7 @@
         <v>null</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E20" t="str">
         <v>dakbedekking</v>
@@ -1593,7 +1593,7 @@
         <v>null</v>
       </c>
       <c r="D21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E21" t="str">
         <v>dakgebinte</v>
@@ -1652,7 +1652,7 @@
         <v>null</v>
       </c>
       <c r="D22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E22" t="str">
         <v>dakgoten</v>
@@ -1711,7 +1711,7 @@
         <v>null</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E23" t="str">
         <v>gebouwonderdeel</v>
@@ -1720,7 +1720,7 @@
         <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H23" t="str">
         <v>Gebrek aan de toestand van een gebouwonderdeel</v>
@@ -1770,7 +1770,7 @@
         <v>null</v>
       </c>
       <c r="D24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E24" t="str">
         <v>kroonlijst</v>
@@ -1829,7 +1829,7 @@
         <v>null</v>
       </c>
       <c r="D25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E25" t="str">
         <v>liften</v>
@@ -1888,7 +1888,7 @@
         <v>null</v>
       </c>
       <c r="D26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E26" t="str">
         <v>schoorstenen</v>
@@ -1947,7 +1947,7 @@
         <v>null</v>
       </c>
       <c r="D27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E27" t="str">
         <v>stabiliteit</v>
@@ -1956,7 +1956,7 @@
         <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H27" t="str">
         <v>Gebrek dat stabiliteit in het gedrang brengt</v>
@@ -2006,7 +2006,7 @@
         <v>null</v>
       </c>
       <c r="D28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E28" t="str">
         <v>trappen</v>
@@ -2065,7 +2065,7 @@
         <v>null</v>
       </c>
       <c r="D29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E29" t="str">
         <v>veiligheid</v>
@@ -2074,7 +2074,7 @@
         <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H29" t="str">
         <v>Gebrek dat veiligheid in het gedrang brengt</v>
@@ -2124,7 +2124,7 @@
         <v>null</v>
       </c>
       <c r="D30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E30" t="str">
         <v>vochtindringing</v>
@@ -2133,7 +2133,7 @@
         <v>Gebrek dat leidt tot vochtindringing</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H30" t="str">
         <v>Gebrek dat leidt tot vochtindringing</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2419,7 +2419,7 @@
         <v>null</v>
       </c>
       <c r="D35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E35" t="str">
         <v>null</v>
@@ -2428,7 +2428,7 @@
         <v>Curator</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H35" t="str">
         <v>null</v>
@@ -2478,7 +2478,7 @@
         <v>null</v>
       </c>
       <c r="D36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E36" t="str">
         <v>null</v>
@@ -2487,7 +2487,7 @@
         <v>Eigenaar</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H36" t="str">
         <v>null</v>
@@ -2537,7 +2537,7 @@
         <v>null</v>
       </c>
       <c r="D37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E37" t="str">
         <v>null</v>
@@ -2546,7 +2546,7 @@
         <v>Instrumenterend ambtenaar</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H37" t="str">
         <v>null</v>
@@ -2596,7 +2596,7 @@
         <v>null</v>
       </c>
       <c r="D38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E38" t="str">
         <v>null</v>
@@ -2605,7 +2605,7 @@
         <v>Raadsman</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H38" t="str">
         <v>null</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -425,40 +425,40 @@
         <v>topConceptOf</v>
       </c>
       <c r="H1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="I1" t="str">
+        <v>note</v>
+      </c>
+      <c r="J1" t="str">
         <v>altLabel</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>broader</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>theme</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>gekoppelde_eigenschap</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>narrower</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>belongsTo</v>
       </c>
-      <c r="Q1" t="str">
-        <v>definition</v>
-      </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>hasTopConcept</v>
-      </c>
-      <c r="S1" t="str">
-        <v>note</v>
       </c>
     </row>
     <row r="2">
@@ -1407,7 +1407,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1416,34 +1416,34 @@
         <v>null</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E18" t="str">
-        <v>buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="F18" t="str">
-        <v>Gebrek aan de toestand van buitenmuren</v>
+        <v>Curator</v>
       </c>
       <c r="G18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H18" t="str">
-        <v>Buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="I18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L18" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="M18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="N18" t="str">
         <v>null</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1475,34 +1475,34 @@
         <v>null</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E19" t="str">
-        <v>buitentimmerwerk</v>
+        <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
+        <v>Eigenaar</v>
       </c>
       <c r="G19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H19" t="str">
-        <v>Buitentimmerwerk</v>
+        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
       </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L19" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="M19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
+        <v>null</v>
       </c>
       <c r="N19" t="str">
         <v>null</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instumenterend_ambtenaar</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1534,34 +1534,34 @@
         <v>null</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E20" t="str">
-        <v>dakbedekking</v>
+        <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>Gebrek aan de toestand van de dakbedekking</v>
+        <v>Instrumenterend ambtenaar</v>
       </c>
       <c r="G20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H20" t="str">
-        <v>Dakbedekking</v>
+        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
       </c>
       <c r="I20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
       </c>
       <c r="J20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L20" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="M20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
+        <v>null</v>
       </c>
       <c r="N20" t="str">
         <v>null</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1593,34 +1593,34 @@
         <v>null</v>
       </c>
       <c r="D21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E21" t="str">
-        <v>dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>Gebrek aan de toestand van het dakgebinte</v>
+        <v>Raadsman</v>
       </c>
       <c r="G21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H21" t="str">
-        <v>Dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="I21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="K21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L21" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="M21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="N21" t="str">
         <v>null</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1655,37 +1655,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E22" t="str">
-        <v>dakgoten</v>
+        <v>buitenmuren</v>
       </c>
       <c r="F22" t="str">
-        <v>Gebrek aan de toestand van de dakgoten</v>
+        <v>Gebrek aan de toestand van buitenmuren</v>
       </c>
       <c r="G22" t="str">
         <v>null</v>
       </c>
       <c r="H22" t="str">
-        <v>Dakgoten</v>
+        <v>null</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>Buitenmuren</v>
       </c>
       <c r="K22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N22" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
-      </c>
-      <c r="N22" t="str">
-        <v>null</v>
-      </c>
       <c r="O22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
       </c>
       <c r="P22" t="str">
         <v>null</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1714,37 +1714,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E23" t="str">
-        <v>gebouwonderdeel</v>
+        <v>buitentimmerwerk</v>
       </c>
       <c r="F23" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H23" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="I23" t="str">
         <v>null</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>Buitentimmerwerk</v>
       </c>
       <c r="K23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N23" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
-      </c>
-      <c r="N23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
-      </c>
       <c r="O23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
       </c>
       <c r="P23" t="str">
         <v>null</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1773,37 +1773,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E24" t="str">
-        <v>kroonlijst</v>
+        <v>dakbedekking</v>
       </c>
       <c r="F24" t="str">
-        <v>Gebrek aan de toestand van de kroonlijst</v>
+        <v>Gebrek aan de toestand van de dakbedekking</v>
       </c>
       <c r="G24" t="str">
         <v>null</v>
       </c>
       <c r="H24" t="str">
-        <v>Kroonlijst</v>
+        <v>null</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>Dakbedekking</v>
       </c>
       <c r="K24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N24" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
-      </c>
-      <c r="N24" t="str">
-        <v>null</v>
-      </c>
       <c r="O24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
       </c>
       <c r="P24" t="str">
         <v>null</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1832,37 +1832,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E25" t="str">
-        <v>liften</v>
+        <v>dakgebinte</v>
       </c>
       <c r="F25" t="str">
-        <v>Gebrek aan de toestand van de liften</v>
+        <v>Gebrek aan de toestand van het dakgebinte</v>
       </c>
       <c r="G25" t="str">
         <v>null</v>
       </c>
       <c r="H25" t="str">
-        <v>Liften</v>
+        <v>null</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>Dakgebinte</v>
       </c>
       <c r="K25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N25" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
-      </c>
-      <c r="N25" t="str">
-        <v>null</v>
-      </c>
       <c r="O25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
       </c>
       <c r="P25" t="str">
         <v>null</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1891,37 +1891,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E26" t="str">
-        <v>schoorstenen</v>
+        <v>dakgoten</v>
       </c>
       <c r="F26" t="str">
-        <v>Gebrek aan de toestand van schoorstenen</v>
+        <v>Gebrek aan de toestand van de dakgoten</v>
       </c>
       <c r="G26" t="str">
         <v>null</v>
       </c>
       <c r="H26" t="str">
-        <v>Schoorstenen</v>
+        <v>null</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>Dakgoten</v>
       </c>
       <c r="K26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N26" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
-      </c>
-      <c r="N26" t="str">
-        <v>null</v>
-      </c>
       <c r="O26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
       </c>
       <c r="P26" t="str">
         <v>null</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1950,43 +1950,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E27" t="str">
-        <v>stabiliteit</v>
+        <v>gebouwonderdeel</v>
       </c>
       <c r="F27" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="G27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H27" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>null</v>
       </c>
       <c r="I27" t="str">
         <v>null</v>
       </c>
       <c r="J27" t="str">
-        <v>null</v>
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="K27" t="str">
         <v>null</v>
       </c>
       <c r="L27" t="str">
+        <v>null</v>
+      </c>
+      <c r="M27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="N27" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
-      </c>
-      <c r="N27" t="str">
-        <v>null</v>
-      </c>
       <c r="O27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
       </c>
       <c r="P27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="Q27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="R27" t="str">
         <v>null</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2009,37 +2009,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E28" t="str">
-        <v>trappen</v>
+        <v>kroonlijst</v>
       </c>
       <c r="F28" t="str">
-        <v>Gebrek aan de toestand van de trappen</v>
+        <v>Gebrek aan de toestand van de kroonlijst</v>
       </c>
       <c r="G28" t="str">
         <v>null</v>
       </c>
       <c r="H28" t="str">
-        <v>Trappen</v>
+        <v>null</v>
       </c>
       <c r="I28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>Kroonlijst</v>
       </c>
       <c r="K28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N28" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
-      </c>
-      <c r="N28" t="str">
-        <v>null</v>
-      </c>
       <c r="O28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
       </c>
       <c r="P28" t="str">
         <v>null</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2068,37 +2068,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E29" t="str">
-        <v>veiligheid</v>
+        <v>liften</v>
       </c>
       <c r="F29" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>Gebrek aan de toestand van de liften</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H29" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>null</v>
       </c>
       <c r="I29" t="str">
         <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>null</v>
+        <v>Liften</v>
       </c>
       <c r="K29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N29" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
-      </c>
-      <c r="N29" t="str">
-        <v>null</v>
-      </c>
       <c r="O29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
       </c>
       <c r="P29" t="str">
         <v>null</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2127,37 +2127,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E30" t="str">
-        <v>vochtindringing</v>
+        <v>schoorstenen</v>
       </c>
       <c r="F30" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>Gebrek aan de toestand van schoorstenen</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H30" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>null</v>
       </c>
       <c r="I30" t="str">
         <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>null</v>
+        <v>Schoorstenen</v>
       </c>
       <c r="K30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N30" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
-      </c>
-      <c r="N30" t="str">
-        <v>null</v>
-      </c>
       <c r="O30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
       </c>
       <c r="P30" t="str">
         <v>null</v>
@@ -2174,25 +2174,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
       </c>
       <c r="B31" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
         <v>null</v>
       </c>
       <c r="D31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E31" t="str">
-        <v>cs_beslissing</v>
+        <v>stabiliteit</v>
       </c>
       <c r="F31" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="G31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H31" t="str">
         <v>null</v>
@@ -2201,54 +2201,54 @@
         <v>null</v>
       </c>
       <c r="J31" t="str">
-        <v>null</v>
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="K31" t="str">
         <v>null</v>
       </c>
       <c r="L31" t="str">
+        <v>null</v>
+      </c>
+      <c r="M31" t="str">
+        <v>null</v>
+      </c>
+      <c r="N31" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M31" t="str">
-        <v>null</v>
-      </c>
-      <c r="N31" t="str">
-        <v>null</v>
-      </c>
       <c r="O31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
       </c>
       <c r="P31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="Q31" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
       <c r="R31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+        <v>null</v>
       </c>
       <c r="S31" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="B32" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
         <v>null</v>
       </c>
       <c r="D32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E32" t="str">
-        <v>cs_procedure</v>
+        <v>trappen</v>
       </c>
       <c r="F32" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Gebrek aan de toestand van de trappen</v>
       </c>
       <c r="G32" t="str">
         <v>null</v>
@@ -2260,57 +2260,57 @@
         <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>null</v>
+        <v>Trappen</v>
       </c>
       <c r="K32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="N32" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M32" t="str">
-        <v>null</v>
-      </c>
-      <c r="N32" t="str">
-        <v>null</v>
-      </c>
       <c r="O32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
       </c>
       <c r="P32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="Q32" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
       <c r="R32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>null</v>
       </c>
       <c r="S32" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
       </c>
       <c r="B33" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
         <v>null</v>
       </c>
       <c r="D33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E33" t="str">
-        <v>cs_rol</v>
+        <v>veiligheid</v>
       </c>
       <c r="F33" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="G33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H33" t="str">
         <v>null</v>
@@ -2319,57 +2319,57 @@
         <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>null</v>
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="K33" t="str">
         <v>null</v>
       </c>
       <c r="L33" t="str">
+        <v>null</v>
+      </c>
+      <c r="M33" t="str">
+        <v>null</v>
+      </c>
+      <c r="N33" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M33" t="str">
-        <v>null</v>
-      </c>
-      <c r="N33" t="str">
-        <v>null</v>
-      </c>
       <c r="O33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
       </c>
       <c r="P33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="Q33" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
       <c r="R33" t="str">
-        <v>rol:curator|rol:eigenaar|rol:instumenterend_ambtenaar|rol:raadsman</v>
+        <v>null</v>
       </c>
       <c r="S33" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C34" t="str">
+        <v>null</v>
+      </c>
+      <c r="D34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
-      <c r="B34" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C34" t="str">
-        <v>null</v>
-      </c>
-      <c r="D34" t="str">
-        <v>null</v>
-      </c>
       <c r="E34" t="str">
-        <v>cs_uitgesproken_gebrek</v>
+        <v>vochtindringing</v>
       </c>
       <c r="F34" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Gebrek dat leidt tot vochtindringing</v>
       </c>
       <c r="G34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H34" t="str">
         <v>null</v>
@@ -2378,63 +2378,63 @@
         <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>null</v>
+        <v>Gebrek dat leidt tot vochtindringing</v>
       </c>
       <c r="K34" t="str">
         <v>null</v>
       </c>
       <c r="L34" t="str">
+        <v>null</v>
+      </c>
+      <c r="M34" t="str">
+        <v>null</v>
+      </c>
+      <c r="N34" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="M34" t="str">
-        <v>null</v>
-      </c>
-      <c r="N34" t="str">
-        <v>null</v>
-      </c>
       <c r="O34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
       </c>
       <c r="P34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="Q34" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
       <c r="R34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+        <v>null</v>
       </c>
       <c r="S34" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>rol:curator</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="B35" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C35" t="str">
         <v>null</v>
       </c>
       <c r="D35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>null</v>
       </c>
       <c r="E35" t="str">
-        <v>null</v>
+        <v>cs_beslissing</v>
       </c>
       <c r="F35" t="str">
-        <v>Curator</v>
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>null</v>
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="I35" t="str">
-        <v>null</v>
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="J35" t="str">
         <v>null</v>
@@ -2449,7 +2449,7 @@
         <v>null</v>
       </c>
       <c r="N35" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O35" t="str">
         <v>null</v>
@@ -2461,39 +2461,39 @@
         <v>null</v>
       </c>
       <c r="R35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>rol:eigenaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="B36" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C36" t="str">
         <v>null</v>
       </c>
       <c r="D36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>null</v>
       </c>
       <c r="E36" t="str">
-        <v>null</v>
+        <v>cs_procedure</v>
       </c>
       <c r="F36" t="str">
-        <v>Eigenaar</v>
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>null</v>
       </c>
       <c r="H36" t="str">
-        <v>null</v>
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="I36" t="str">
-        <v>null</v>
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="J36" t="str">
         <v>null</v>
@@ -2508,7 +2508,7 @@
         <v>null</v>
       </c>
       <c r="N36" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O36" t="str">
         <v>null</v>
@@ -2517,42 +2517,42 @@
         <v>null</v>
       </c>
       <c r="Q36" t="str">
-        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
+        <v>null</v>
       </c>
       <c r="R36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S36" t="str">
-        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>rol:instumenterend_ambtenaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="B37" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C37" t="str">
         <v>null</v>
       </c>
       <c r="D37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>null</v>
       </c>
       <c r="E37" t="str">
-        <v>null</v>
+        <v>cs_rol</v>
       </c>
       <c r="F37" t="str">
-        <v>Instrumenterend ambtenaar</v>
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>null</v>
       </c>
       <c r="H37" t="str">
-        <v>null</v>
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="I37" t="str">
-        <v>null</v>
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="J37" t="str">
         <v>null</v>
@@ -2567,7 +2567,7 @@
         <v>null</v>
       </c>
       <c r="N37" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O37" t="str">
         <v>null</v>
@@ -2576,42 +2576,42 @@
         <v>null</v>
       </c>
       <c r="Q37" t="str">
-        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
+        <v>null</v>
       </c>
       <c r="R37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S37" t="str">
-        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>rol:raadsman</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="B38" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C38" t="str">
         <v>null</v>
       </c>
       <c r="D38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>null</v>
       </c>
       <c r="E38" t="str">
-        <v>null</v>
+        <v>cs_uitgesproken_gebrek</v>
       </c>
       <c r="F38" t="str">
-        <v>Raadsman</v>
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>null</v>
       </c>
       <c r="H38" t="str">
-        <v>null</v>
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="I38" t="str">
-        <v>null</v>
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
       <c r="J38" t="str">
         <v>null</v>
@@ -2626,7 +2626,7 @@
         <v>null</v>
       </c>
       <c r="N38" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O38" t="str">
         <v>null</v>
@@ -2638,10 +2638,10 @@
         <v>null</v>
       </c>
       <c r="R38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -478,7 +478,7 @@
         <v>aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="F2" t="str">
-        <v>aanvraag_opschorting_heffing_aanvaard</v>
+        <v>aanvraag opschorting heffing aanvaard</v>
       </c>
       <c r="G2" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -537,7 +537,7 @@
         <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="F3" t="str">
-        <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
+        <v>aanvraag opschorting heffing niet aanvaard</v>
       </c>
       <c r="G3" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -596,7 +596,7 @@
         <v>aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="F4" t="str">
-        <v>aanvraag_schrapping_aanvaard</v>
+        <v>aanvraag schrapping aanvaard</v>
       </c>
       <c r="G4" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -655,7 +655,7 @@
         <v>aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="F5" t="str">
-        <v>aanvraag_schrapping_niet_aanvaard</v>
+        <v>aanvraag schrapping niet aanvaard</v>
       </c>
       <c r="G5" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -714,7 +714,7 @@
         <v>beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="F6" t="str">
-        <v>beroep_tegen_registratie_ingewilligd</v>
+        <v>beroep tegen registratie ingewilligd</v>
       </c>
       <c r="G6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -773,7 +773,7 @@
         <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="F7" t="str">
-        <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
+        <v>beroep tegen registratie onontvankelijk verklaard</v>
       </c>
       <c r="G7" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -832,7 +832,7 @@
         <v>beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="F8" t="str">
-        <v>beroep_tegen_registratie_verworpen</v>
+        <v>beroep tegen registratie verworpen</v>
       </c>
       <c r="G8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -950,7 +950,7 @@
         <v>geschrapt_uit_inventaris</v>
       </c>
       <c r="F10" t="str">
-        <v>geschrapt_uit_inventaris</v>
+        <v>geschrapt uit inventaris</v>
       </c>
       <c r="G10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1009,7 +1009,7 @@
         <v>heffing_opgeschort</v>
       </c>
       <c r="F11" t="str">
-        <v>heffing_opgeschort</v>
+        <v>heffing opgeschort</v>
       </c>
       <c r="G11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1127,7 +1127,7 @@
         <v>registratie_ingetrokken</v>
       </c>
       <c r="F13" t="str">
-        <v>registratie_ingetrokken</v>
+        <v>registratie ingetrokken</v>
       </c>
       <c r="G13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instumenterend_ambtenaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2582,7 +2582,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
       </c>
     </row>
     <row r="38">

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -478,7 +478,7 @@
         <v>aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="F2" t="str">
-        <v>aanvraag opschorting heffing aanvaard</v>
+        <v>Aanvraag opschorting heffing aanvaard</v>
       </c>
       <c r="G2" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -537,7 +537,7 @@
         <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="F3" t="str">
-        <v>aanvraag opschorting heffing niet aanvaard</v>
+        <v>Aanvraag opschorting heffing niet aanvaard</v>
       </c>
       <c r="G3" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -596,7 +596,7 @@
         <v>aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="F4" t="str">
-        <v>aanvraag schrapping aanvaard</v>
+        <v>Aanvraag schrapping aanvaard</v>
       </c>
       <c r="G4" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -655,7 +655,7 @@
         <v>aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="F5" t="str">
-        <v>aanvraag schrapping niet aanvaard</v>
+        <v>Aanvraag schrapping niet aanvaard</v>
       </c>
       <c r="G5" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -714,7 +714,7 @@
         <v>beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="F6" t="str">
-        <v>beroep tegen registratie ingewilligd</v>
+        <v>Beroep tegen registratie ingewilligd</v>
       </c>
       <c r="G6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -773,7 +773,7 @@
         <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="F7" t="str">
-        <v>beroep tegen registratie onontvankelijk verklaard</v>
+        <v>Beroep tegen registratie onontvankelijk verklaard</v>
       </c>
       <c r="G7" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -832,7 +832,7 @@
         <v>beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="F8" t="str">
-        <v>beroep tegen registratie verworpen</v>
+        <v>Beroep tegen registratie verworpen</v>
       </c>
       <c r="G8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -947,10 +947,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E10" t="str">
-        <v>geschrapt_uit_inventaris</v>
+        <v>Geschrapt_uit_inventaris</v>
       </c>
       <c r="F10" t="str">
-        <v>geschrapt uit inventaris</v>
+        <v>Geschrapt uit inventaris</v>
       </c>
       <c r="G10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1009,7 +1009,7 @@
         <v>heffing_opgeschort</v>
       </c>
       <c r="F11" t="str">
-        <v>heffing opgeschort</v>
+        <v>Heffing opgeschort</v>
       </c>
       <c r="G11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1127,7 +1127,7 @@
         <v>registratie_ingetrokken</v>
       </c>
       <c r="F13" t="str">
-        <v>registratie ingetrokken</v>
+        <v>Registratie ingetrokken</v>
       </c>
       <c r="G13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -2425,16 +2425,16 @@
         <v>cs_beslissing</v>
       </c>
       <c r="F35" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="G35" t="str">
         <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="I35" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="J35" t="str">
         <v>null</v>
@@ -2484,16 +2484,16 @@
         <v>cs_procedure</v>
       </c>
       <c r="F36" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="G36" t="str">
         <v>null</v>
       </c>
       <c r="H36" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="I36" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="J36" t="str">
         <v>null</v>
@@ -2543,16 +2543,16 @@
         <v>cs_rol</v>
       </c>
       <c r="F37" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="G37" t="str">
         <v>null</v>
       </c>
       <c r="H37" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="I37" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="J37" t="str">
         <v>null</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/bodemsaneringsproject</v>
       </c>
       <c r="B2" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -472,16 +472,16 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="E2" t="str">
-        <v>aanvraag_opschorting_heffing_aanvaard</v>
+        <v>bodemsaneringsproject</v>
       </c>
       <c r="F2" t="str">
-        <v>Aanvraag opschorting heffing aanvaard</v>
+        <v>Conform verklaard bodemsaneringsproject</v>
       </c>
       <c r="G2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="H2" t="str">
         <v>null</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/brownfieldconvenant</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -531,16 +531,16 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="E3" t="str">
-        <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
+        <v>brownfieldconvenant</v>
       </c>
       <c r="F3" t="str">
-        <v>Aanvraag opschorting heffing niet aanvaard</v>
+        <v>Definitief gesloten brownfieldconvenant</v>
       </c>
       <c r="G3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="H3" t="str">
         <v>null</v>
@@ -581,25 +581,25 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/leegstaand_niet_verwaarloosd</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="E4" t="str">
-        <v>aanvraag_schrapping_aanvaard</v>
+        <v>leegstaand_niet_verwaarloosd</v>
       </c>
       <c r="F4" t="str">
-        <v>Aanvraag schrapping aanvaard</v>
+        <v>Leegstaande maar niet-verwaarloosde bedrijfsruimten</v>
       </c>
       <c r="G4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="H4" t="str">
         <v>null</v>
@@ -640,25 +640,25 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/nieuwe_eigenaars</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="E5" t="str">
-        <v>aanvraag_schrapping_niet_aanvaard</v>
+        <v>nieuwe_eigenaars</v>
       </c>
       <c r="F5" t="str">
-        <v>Aanvraag schrapping niet aanvaard</v>
+        <v>Nieuwe eigenaars</v>
       </c>
       <c r="G5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="H5" t="str">
         <v>null</v>
@@ -699,25 +699,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/vernieuwing</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="E6" t="str">
-        <v>beroep_tegen_registratie_ingewilligd</v>
+        <v>vernieuwing</v>
       </c>
       <c r="F6" t="str">
-        <v>Beroep tegen registratie ingewilligd</v>
+        <v>Vernieuwing, al of niet gekoppeld aan de beëindiging van de leegstand</v>
       </c>
       <c r="G6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="H6" t="str">
         <v>null</v>
@@ -758,22 +758,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D7" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E7" t="str">
-        <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
+        <v>aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="F7" t="str">
-        <v>Beroep tegen registratie onontvankelijk verklaard</v>
+        <v>Aanvraag opschorting heffing aanvaard</v>
       </c>
       <c r="G7" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -817,22 +817,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E8" t="str">
-        <v>beroep_tegen_registratie_verworpen</v>
+        <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="F8" t="str">
-        <v>Beroep tegen registratie verworpen</v>
+        <v>Aanvraag opschorting heffing niet aanvaard</v>
       </c>
       <c r="G8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -876,22 +876,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="D9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E9" t="str">
-        <v>geregistreerd_in_inventaris</v>
+        <v>aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="F9" t="str">
-        <v>Geregistreerd in inventaris</v>
+        <v>Aanvraag schrapping aanvaard</v>
       </c>
       <c r="G9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -935,22 +935,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="D10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E10" t="str">
-        <v>Geschrapt_uit_inventaris</v>
+        <v>aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="F10" t="str">
-        <v>Geschrapt uit inventaris</v>
+        <v>Aanvraag schrapping niet aanvaard</v>
       </c>
       <c r="G10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -994,22 +994,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E11" t="str">
-        <v>heffing_opgeschort</v>
+        <v>beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="F11" t="str">
-        <v>Heffing opgeschort</v>
+        <v>Beroep tegen registratie ingewilligd</v>
       </c>
       <c r="G11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1053,22 +1053,22 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E12" t="str">
-        <v>niet_geregistreerd_in_inventaris</v>
+        <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="F12" t="str">
-        <v>Niet geregistreerd in inventaris</v>
+        <v>Beroep tegen registratie onontvankelijk verklaard</v>
       </c>
       <c r="G12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1112,22 +1112,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E13" t="str">
-        <v>registratie_ingetrokken</v>
+        <v>beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="F13" t="str">
-        <v>Registratie ingetrokken</v>
+        <v>Beroep tegen registratie verworpen</v>
       </c>
       <c r="G13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1171,25 +1171,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="D14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E14" t="str">
-        <v>null</v>
+        <v>geregistreerd_in_inventaris</v>
       </c>
       <c r="F14" t="str">
-        <v>Aanvraag opschorting heffing</v>
+        <v>Geregistreerd in inventaris</v>
       </c>
       <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H14" t="str">
         <v>null</v>
@@ -1230,25 +1230,25 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
+        <v>null</v>
       </c>
       <c r="D15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E15" t="str">
-        <v>null</v>
+        <v>Geschrapt_uit_inventaris</v>
       </c>
       <c r="F15" t="str">
-        <v>Aanvraag schrapping</v>
+        <v>Geschrapt uit inventaris</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H15" t="str">
         <v>null</v>
@@ -1289,25 +1289,25 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
+        <v>null</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E16" t="str">
-        <v>null</v>
+        <v>heffing_opgeschort</v>
       </c>
       <c r="F16" t="str">
-        <v>Beroep tegen registratie</v>
+        <v>Heffing opgeschort</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H16" t="str">
         <v>null</v>
@@ -1348,25 +1348,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
+      </c>
+      <c r="B17" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
-      <c r="B17" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
-      </c>
-      <c r="C17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
-      </c>
       <c r="D17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E17" t="str">
-        <v>null</v>
+        <v>niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="F17" t="str">
-        <v>Registreren</v>
+        <v>Niet geregistreerd in inventaris</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H17" t="str">
         <v>null</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1416,16 +1416,16 @@
         <v>null</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E18" t="str">
-        <v>null</v>
+        <v>registratie_ingetrokken</v>
       </c>
       <c r="F18" t="str">
-        <v>Curator</v>
+        <v>Registratie ingetrokken</v>
       </c>
       <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H18" t="str">
         <v>null</v>
@@ -1466,31 +1466,31 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E19" t="str">
         <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>Eigenaar</v>
+        <v>Aanvraag opschorting heffing</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H19" t="str">
-        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
+        <v>null</v>
       </c>
       <c r="I19" t="str">
-        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
+        <v>null</v>
       </c>
       <c r="J19" t="str">
         <v>null</v>
@@ -1525,31 +1525,31 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E20" t="str">
         <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>Instrumenterend ambtenaar</v>
+        <v>Aanvraag schrapping</v>
       </c>
       <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H20" t="str">
-        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
+        <v>null</v>
       </c>
       <c r="I20" t="str">
-        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
+        <v>null</v>
       </c>
       <c r="J20" t="str">
         <v>null</v>
@@ -1584,25 +1584,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="D21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E21" t="str">
         <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>Raadsman</v>
+        <v>Beroep tegen registratie</v>
       </c>
       <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H21" t="str">
         <v>null</v>
@@ -1643,25 +1643,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="D22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E22" t="str">
-        <v>buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>Gebrek aan de toestand van buitenmuren</v>
+        <v>Registreren</v>
       </c>
       <c r="G22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H22" t="str">
         <v>null</v>
@@ -1670,22 +1670,22 @@
         <v>null</v>
       </c>
       <c r="J22" t="str">
-        <v>Buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="K22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N22" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="P22" t="str">
         <v>null</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1711,16 +1711,16 @@
         <v>null</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E23" t="str">
-        <v>buitentimmerwerk</v>
+        <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
+        <v>Curator</v>
       </c>
       <c r="G23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H23" t="str">
         <v>null</v>
@@ -1729,22 +1729,22 @@
         <v>null</v>
       </c>
       <c r="J23" t="str">
-        <v>Buitentimmerwerk</v>
+        <v>null</v>
       </c>
       <c r="K23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N23" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
+        <v>null</v>
       </c>
       <c r="P23" t="str">
         <v>null</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1770,40 +1770,40 @@
         <v>null</v>
       </c>
       <c r="D24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E24" t="str">
-        <v>dakbedekking</v>
+        <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>Gebrek aan de toestand van de dakbedekking</v>
+        <v>Eigenaar</v>
       </c>
       <c r="G24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H24" t="str">
-        <v>null</v>
+        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
       </c>
       <c r="I24" t="str">
-        <v>null</v>
+        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
       </c>
       <c r="J24" t="str">
-        <v>Dakbedekking</v>
+        <v>null</v>
       </c>
       <c r="K24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N24" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
+        <v>null</v>
       </c>
       <c r="P24" t="str">
         <v>null</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1829,40 +1829,40 @@
         <v>null</v>
       </c>
       <c r="D25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E25" t="str">
-        <v>dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="F25" t="str">
-        <v>Gebrek aan de toestand van het dakgebinte</v>
+        <v>Instrumenterend ambtenaar</v>
       </c>
       <c r="G25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H25" t="str">
-        <v>null</v>
+        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
       </c>
       <c r="I25" t="str">
-        <v>null</v>
+        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
       </c>
       <c r="J25" t="str">
-        <v>Dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="K25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N25" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="P25" t="str">
         <v>null</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1888,16 +1888,16 @@
         <v>null</v>
       </c>
       <c r="D26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E26" t="str">
-        <v>dakgoten</v>
+        <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>Gebrek aan de toestand van de dakgoten</v>
+        <v>Raadsman</v>
       </c>
       <c r="G26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H26" t="str">
         <v>null</v>
@@ -1906,22 +1906,22 @@
         <v>null</v>
       </c>
       <c r="J26" t="str">
-        <v>Dakgoten</v>
+        <v>null</v>
       </c>
       <c r="K26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N26" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
+        <v>null</v>
       </c>
       <c r="P26" t="str">
         <v>null</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1950,13 +1950,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E27" t="str">
-        <v>gebouwonderdeel</v>
+        <v>buitenmuren</v>
       </c>
       <c r="F27" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>Gebrek aan de toestand van buitenmuren</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H27" t="str">
         <v>null</v>
@@ -1965,28 +1965,28 @@
         <v>null</v>
       </c>
       <c r="J27" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>Buitenmuren</v>
       </c>
       <c r="K27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N27" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
       </c>
       <c r="P27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>null</v>
       </c>
       <c r="Q27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>null</v>
       </c>
       <c r="R27" t="str">
         <v>null</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2009,10 +2009,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E28" t="str">
-        <v>kroonlijst</v>
+        <v>buitentimmerwerk</v>
       </c>
       <c r="F28" t="str">
-        <v>Gebrek aan de toestand van de kroonlijst</v>
+        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
       </c>
       <c r="G28" t="str">
         <v>null</v>
@@ -2024,7 +2024,7 @@
         <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>Kroonlijst</v>
+        <v>Buitentimmerwerk</v>
       </c>
       <c r="K28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2039,7 +2039,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
       </c>
       <c r="P28" t="str">
         <v>null</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2068,10 +2068,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E29" t="str">
-        <v>liften</v>
+        <v>dakbedekking</v>
       </c>
       <c r="F29" t="str">
-        <v>Gebrek aan de toestand van de liften</v>
+        <v>Gebrek aan de toestand van de dakbedekking</v>
       </c>
       <c r="G29" t="str">
         <v>null</v>
@@ -2083,7 +2083,7 @@
         <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>Liften</v>
+        <v>Dakbedekking</v>
       </c>
       <c r="K29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2098,7 +2098,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
       </c>
       <c r="P29" t="str">
         <v>null</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2127,10 +2127,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E30" t="str">
-        <v>schoorstenen</v>
+        <v>dakgebinte</v>
       </c>
       <c r="F30" t="str">
-        <v>Gebrek aan de toestand van schoorstenen</v>
+        <v>Gebrek aan de toestand van het dakgebinte</v>
       </c>
       <c r="G30" t="str">
         <v>null</v>
@@ -2142,7 +2142,7 @@
         <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>Schoorstenen</v>
+        <v>Dakgebinte</v>
       </c>
       <c r="K30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2157,7 +2157,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
       </c>
       <c r="P30" t="str">
         <v>null</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2186,13 +2186,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E31" t="str">
-        <v>stabiliteit</v>
+        <v>dakgoten</v>
       </c>
       <c r="F31" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>Gebrek aan de toestand van de dakgoten</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H31" t="str">
         <v>null</v>
@@ -2201,22 +2201,22 @@
         <v>null</v>
       </c>
       <c r="J31" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>Dakgoten</v>
       </c>
       <c r="K31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N31" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
       </c>
       <c r="P31" t="str">
         <v>null</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2245,13 +2245,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E32" t="str">
-        <v>trappen</v>
+        <v>gebouwonderdeel</v>
       </c>
       <c r="F32" t="str">
-        <v>Gebrek aan de toestand van de trappen</v>
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="G32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H32" t="str">
         <v>null</v>
@@ -2260,28 +2260,28 @@
         <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>Trappen</v>
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="K32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="N32" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
       </c>
       <c r="P32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="Q32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="R32" t="str">
         <v>null</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2304,13 +2304,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E33" t="str">
-        <v>veiligheid</v>
+        <v>kroonlijst</v>
       </c>
       <c r="F33" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>Gebrek aan de toestand van de kroonlijst</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H33" t="str">
         <v>null</v>
@@ -2319,22 +2319,22 @@
         <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>Kroonlijst</v>
       </c>
       <c r="K33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N33" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
       </c>
       <c r="P33" t="str">
         <v>null</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2363,13 +2363,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E34" t="str">
-        <v>vochtindringing</v>
+        <v>liften</v>
       </c>
       <c r="F34" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>Gebrek aan de toestand van de liften</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H34" t="str">
         <v>null</v>
@@ -2378,22 +2378,22 @@
         <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>Liften</v>
       </c>
       <c r="K34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N34" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
       </c>
       <c r="P34" t="str">
         <v>null</v>
@@ -2410,49 +2410,49 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
       </c>
       <c r="B35" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
         <v>null</v>
       </c>
       <c r="D35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E35" t="str">
-        <v>cs_beslissing</v>
+        <v>schoorstenen</v>
       </c>
       <c r="F35" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Gebrek aan de toestand van schoorstenen</v>
       </c>
       <c r="G35" t="str">
         <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="I35" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="J35" t="str">
-        <v>null</v>
+        <v>Schoorstenen</v>
       </c>
       <c r="K35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N35" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
       </c>
       <c r="P35" t="str">
         <v>null</v>
@@ -2461,42 +2461,42 @@
         <v>null</v>
       </c>
       <c r="R35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="S35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+        <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
       </c>
       <c r="B36" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
         <v>null</v>
       </c>
       <c r="D36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E36" t="str">
-        <v>cs_procedure</v>
+        <v>stabiliteit</v>
       </c>
       <c r="F36" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="G36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H36" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="I36" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="J36" t="str">
-        <v>null</v>
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="K36" t="str">
         <v>null</v>
@@ -2511,7 +2511,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
       </c>
       <c r="P36" t="str">
         <v>null</v>
@@ -2520,57 +2520,57 @@
         <v>null</v>
       </c>
       <c r="R36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="S36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="B37" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
         <v>null</v>
       </c>
       <c r="D37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E37" t="str">
-        <v>cs_rol</v>
+        <v>trappen</v>
       </c>
       <c r="F37" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Gebrek aan de toestand van de trappen</v>
       </c>
       <c r="G37" t="str">
         <v>null</v>
       </c>
       <c r="H37" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="I37" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="J37" t="str">
-        <v>null</v>
+        <v>Trappen</v>
       </c>
       <c r="K37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N37" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
       </c>
       <c r="P37" t="str">
         <v>null</v>
@@ -2579,42 +2579,42 @@
         <v>null</v>
       </c>
       <c r="R37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="S37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+        <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C38" t="str">
+        <v>null</v>
+      </c>
+      <c r="D38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
-      <c r="B38" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C38" t="str">
-        <v>null</v>
-      </c>
-      <c r="D38" t="str">
-        <v>null</v>
-      </c>
       <c r="E38" t="str">
-        <v>cs_uitgesproken_gebrek</v>
+        <v>veiligheid</v>
       </c>
       <c r="F38" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="G38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H38" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
       <c r="I38" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>null</v>
       </c>
       <c r="J38" t="str">
-        <v>null</v>
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="K38" t="str">
         <v>null</v>
@@ -2629,7 +2629,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
       </c>
       <c r="P38" t="str">
         <v>null</v>
@@ -2638,15 +2638,369 @@
         <v>null</v>
       </c>
       <c r="R38" t="str">
+        <v>null</v>
+      </c>
+      <c r="S38" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+      </c>
+      <c r="B39" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C39" t="str">
+        <v>null</v>
+      </c>
+      <c r="D39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E39" t="str">
+        <v>vochtindringing</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Gebrek dat leidt tot vochtindringing</v>
+      </c>
+      <c r="G39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="H39" t="str">
+        <v>null</v>
+      </c>
+      <c r="I39" t="str">
+        <v>null</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Gebrek dat leidt tot vochtindringing</v>
+      </c>
+      <c r="K39" t="str">
+        <v>null</v>
+      </c>
+      <c r="L39" t="str">
+        <v>null</v>
+      </c>
+      <c r="M39" t="str">
+        <v>null</v>
+      </c>
+      <c r="N39" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="O39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
+      </c>
+      <c r="P39" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>null</v>
+      </c>
+      <c r="R39" t="str">
+        <v>null</v>
+      </c>
+      <c r="S39" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
+      </c>
+      <c r="B40" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C40" t="str">
+        <v>null</v>
+      </c>
+      <c r="D40" t="str">
+        <v>null</v>
+      </c>
+      <c r="E40" t="str">
+        <v>cs_aanvraag_opschorting_heffing_reden</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+      </c>
+      <c r="G40" t="str">
+        <v>null</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+      </c>
+      <c r="J40" t="str">
+        <v>null</v>
+      </c>
+      <c r="K40" t="str">
+        <v>null</v>
+      </c>
+      <c r="L40" t="str">
+        <v>null</v>
+      </c>
+      <c r="M40" t="str">
+        <v>null</v>
+      </c>
+      <c r="N40" t="str">
+        <v>null</v>
+      </c>
+      <c r="O40" t="str">
+        <v>null</v>
+      </c>
+      <c r="P40" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>null</v>
+      </c>
+      <c r="R40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
-      <c r="S38" t="str">
+      <c r="S40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/bodemsaneringsproject|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/brownfieldconvenant|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/leegstaand_niet_verwaarloosd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/nieuwe_eigenaars|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/vernieuwing</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+      </c>
+      <c r="B41" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C41" t="str">
+        <v>null</v>
+      </c>
+      <c r="D41" t="str">
+        <v>null</v>
+      </c>
+      <c r="E41" t="str">
+        <v>cs_beslissing</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="G41" t="str">
+        <v>null</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="J41" t="str">
+        <v>null</v>
+      </c>
+      <c r="K41" t="str">
+        <v>null</v>
+      </c>
+      <c r="L41" t="str">
+        <v>null</v>
+      </c>
+      <c r="M41" t="str">
+        <v>null</v>
+      </c>
+      <c r="N41" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="O41" t="str">
+        <v>null</v>
+      </c>
+      <c r="P41" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>null</v>
+      </c>
+      <c r="R41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+      </c>
+      <c r="B42" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C42" t="str">
+        <v>null</v>
+      </c>
+      <c r="D42" t="str">
+        <v>null</v>
+      </c>
+      <c r="E42" t="str">
+        <v>cs_procedure</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="G42" t="str">
+        <v>null</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="J42" t="str">
+        <v>null</v>
+      </c>
+      <c r="K42" t="str">
+        <v>null</v>
+      </c>
+      <c r="L42" t="str">
+        <v>null</v>
+      </c>
+      <c r="M42" t="str">
+        <v>null</v>
+      </c>
+      <c r="N42" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="O42" t="str">
+        <v>null</v>
+      </c>
+      <c r="P42" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>null</v>
+      </c>
+      <c r="R42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+      </c>
+      <c r="B43" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C43" t="str">
+        <v>null</v>
+      </c>
+      <c r="D43" t="str">
+        <v>null</v>
+      </c>
+      <c r="E43" t="str">
+        <v>cs_rol</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="G43" t="str">
+        <v>null</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="J43" t="str">
+        <v>null</v>
+      </c>
+      <c r="K43" t="str">
+        <v>null</v>
+      </c>
+      <c r="L43" t="str">
+        <v>null</v>
+      </c>
+      <c r="M43" t="str">
+        <v>null</v>
+      </c>
+      <c r="N43" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="O43" t="str">
+        <v>null</v>
+      </c>
+      <c r="P43" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>null</v>
+      </c>
+      <c r="R43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="B44" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C44" t="str">
+        <v>null</v>
+      </c>
+      <c r="D44" t="str">
+        <v>null</v>
+      </c>
+      <c r="E44" t="str">
+        <v>cs_uitgesproken_gebrek</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+      </c>
+      <c r="G44" t="str">
+        <v>null</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+      <c r="J44" t="str">
+        <v>null</v>
+      </c>
+      <c r="K44" t="str">
+        <v>null</v>
+      </c>
+      <c r="L44" t="str">
+        <v>null</v>
+      </c>
+      <c r="M44" t="str">
+        <v>null</v>
+      </c>
+      <c r="N44" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="O44" t="str">
+        <v>null</v>
+      </c>
+      <c r="P44" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>null</v>
+      </c>
+      <c r="R44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S44"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +699,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/vernieuwing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/verlenging_bij_vernieuwing</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -711,10 +711,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="E6" t="str">
-        <v>vernieuwing</v>
+        <v>verlenging_bij_vernieuwing</v>
       </c>
       <c r="F6" t="str">
-        <v>Vernieuwing, al of niet gekoppeld aan de beëindiging van de leegstand</v>
+        <v>Verlenging bij vernieuwing</v>
       </c>
       <c r="G6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/vernieuwing</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -767,16 +767,16 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="E7" t="str">
-        <v>aanvraag_opschorting_heffing_aanvaard</v>
+        <v>vernieuwing</v>
       </c>
       <c r="F7" t="str">
-        <v>Aanvraag opschorting heffing aanvaard</v>
+        <v>Vernieuwing, al of niet gekoppeld aan de beëindiging van de leegstand</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="H7" t="str">
         <v>null</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -829,10 +829,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E8" t="str">
-        <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
+        <v>aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="F8" t="str">
-        <v>Aanvraag opschorting heffing niet aanvaard</v>
+        <v>Aanvraag opschorting heffing aanvaard</v>
       </c>
       <c r="G8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -876,22 +876,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="D9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E9" t="str">
-        <v>aanvraag_schrapping_aanvaard</v>
+        <v>aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="F9" t="str">
-        <v>Aanvraag schrapping aanvaard</v>
+        <v>Aanvraag opschorting heffing niet aanvaard</v>
       </c>
       <c r="G9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -947,10 +947,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E10" t="str">
-        <v>aanvraag_schrapping_niet_aanvaard</v>
+        <v>aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="F10" t="str">
-        <v>Aanvraag schrapping niet aanvaard</v>
+        <v>Aanvraag schrapping aanvaard</v>
       </c>
       <c r="G10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -994,22 +994,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="D11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E11" t="str">
-        <v>beroep_tegen_registratie_ingewilligd</v>
+        <v>aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="F11" t="str">
-        <v>Beroep tegen registratie ingewilligd</v>
+        <v>Aanvraag schrapping niet aanvaard</v>
       </c>
       <c r="G11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1065,10 +1065,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E12" t="str">
-        <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
+        <v>beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="F12" t="str">
-        <v>Beroep tegen registratie onontvankelijk verklaard</v>
+        <v>Beroep tegen registratie ingewilligd</v>
       </c>
       <c r="G12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1124,10 +1124,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E13" t="str">
-        <v>beroep_tegen_registratie_verworpen</v>
+        <v>beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="F13" t="str">
-        <v>Beroep tegen registratie verworpen</v>
+        <v>Beroep tegen registratie onontvankelijk verklaard</v>
       </c>
       <c r="G13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1171,22 +1171,22 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="D14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E14" t="str">
-        <v>geregistreerd_in_inventaris</v>
+        <v>beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="F14" t="str">
-        <v>Geregistreerd in inventaris</v>
+        <v>Beroep tegen registratie verworpen</v>
       </c>
       <c r="G14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1230,22 +1230,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="D15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E15" t="str">
-        <v>Geschrapt_uit_inventaris</v>
+        <v>geregistreerd_in_inventaris</v>
       </c>
       <c r="F15" t="str">
-        <v>Geschrapt uit inventaris</v>
+        <v>Geregistreerd in inventaris</v>
       </c>
       <c r="G15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1301,10 +1301,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E16" t="str">
-        <v>heffing_opgeschort</v>
+        <v>Geschrapt_uit_inventaris</v>
       </c>
       <c r="F16" t="str">
-        <v>Heffing opgeschort</v>
+        <v>Geschrapt uit inventaris</v>
       </c>
       <c r="G16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>null</v>
       </c>
       <c r="D17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E17" t="str">
-        <v>niet_geregistreerd_in_inventaris</v>
+        <v>heffing_opgeschort</v>
       </c>
       <c r="F17" t="str">
-        <v>Niet geregistreerd in inventaris</v>
+        <v>Heffing opgeschort</v>
       </c>
       <c r="G17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1407,22 +1407,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="D18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E18" t="str">
-        <v>registratie_ingetrokken</v>
+        <v>niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="F18" t="str">
-        <v>Registratie ingetrokken</v>
+        <v>Niet geregistreerd in inventaris</v>
       </c>
       <c r="G18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
@@ -1466,25 +1466,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
+        <v>null</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="E19" t="str">
-        <v>null</v>
+        <v>registratie_ingetrokken</v>
       </c>
       <c r="F19" t="str">
-        <v>Aanvraag opschorting heffing</v>
+        <v>Registratie ingetrokken</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="H19" t="str">
         <v>null</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="D20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
@@ -1540,7 +1540,7 @@
         <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>Aanvraag schrapping</v>
+        <v>Aanvraag opschorting heffing</v>
       </c>
       <c r="G20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="D21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
@@ -1599,7 +1599,7 @@
         <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>Beroep tegen registratie</v>
+        <v>Aanvraag schrapping</v>
       </c>
       <c r="G21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
@@ -1643,13 +1643,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="D22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
@@ -1658,7 +1658,7 @@
         <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>Registreren</v>
+        <v>Beroep tegen registratie</v>
       </c>
       <c r="G22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
@@ -1702,25 +1702,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="E23" t="str">
         <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>Curator</v>
+        <v>Registreren</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="H23" t="str">
         <v>null</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1776,16 +1776,16 @@
         <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>Eigenaar</v>
+        <v>Curator</v>
       </c>
       <c r="G24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H24" t="str">
-        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
+        <v>null</v>
       </c>
       <c r="I24" t="str">
-        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
+        <v>null</v>
       </c>
       <c r="J24" t="str">
         <v>null</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1835,16 +1835,16 @@
         <v>null</v>
       </c>
       <c r="F25" t="str">
-        <v>Instrumenterend ambtenaar</v>
+        <v>Eigenaar</v>
       </c>
       <c r="G25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H25" t="str">
-        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
+        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
       </c>
       <c r="I25" t="str">
-        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
+        <v>De houder van een van de volgende zakelijke rechten met betrekking tot een bedrijfsgebouw: de volle eigendom, het recht van opstal of van erfpacht, het vruchtgebruik</v>
       </c>
       <c r="J25" t="str">
         <v>null</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1894,16 +1894,16 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>Raadsman</v>
+        <v>Instrumenterend ambtenaar</v>
       </c>
       <c r="G26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H26" t="str">
-        <v>null</v>
+        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
       </c>
       <c r="I26" t="str">
-        <v>null</v>
+        <v>Iedere persoon of instelling die ertoe gemachtigd is aktes van eigendomsoverdracht te verlijden</v>
       </c>
       <c r="J26" t="str">
         <v>null</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1947,16 +1947,16 @@
         <v>null</v>
       </c>
       <c r="D27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="E27" t="str">
-        <v>buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>Gebrek aan de toestand van buitenmuren</v>
+        <v>Raadsman</v>
       </c>
       <c r="G27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="H27" t="str">
         <v>null</v>
@@ -1965,22 +1965,22 @@
         <v>null</v>
       </c>
       <c r="J27" t="str">
-        <v>Buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="K27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N27" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="P27" t="str">
         <v>null</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2009,10 +2009,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E28" t="str">
-        <v>buitentimmerwerk</v>
+        <v>buitenmuren</v>
       </c>
       <c r="F28" t="str">
-        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
+        <v>Gebrek aan de toestand van buitenmuren</v>
       </c>
       <c r="G28" t="str">
         <v>null</v>
@@ -2024,7 +2024,7 @@
         <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>Buitentimmerwerk</v>
+        <v>Buitenmuren</v>
       </c>
       <c r="K28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2039,7 +2039,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
       </c>
       <c r="P28" t="str">
         <v>null</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2068,10 +2068,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E29" t="str">
-        <v>dakbedekking</v>
+        <v>buitentimmerwerk</v>
       </c>
       <c r="F29" t="str">
-        <v>Gebrek aan de toestand van de dakbedekking</v>
+        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
       </c>
       <c r="G29" t="str">
         <v>null</v>
@@ -2083,7 +2083,7 @@
         <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>Dakbedekking</v>
+        <v>Buitentimmerwerk</v>
       </c>
       <c r="K29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2098,7 +2098,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
       </c>
       <c r="P29" t="str">
         <v>null</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2127,10 +2127,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E30" t="str">
-        <v>dakgebinte</v>
+        <v>dakbedekking</v>
       </c>
       <c r="F30" t="str">
-        <v>Gebrek aan de toestand van het dakgebinte</v>
+        <v>Gebrek aan de toestand van de dakbedekking</v>
       </c>
       <c r="G30" t="str">
         <v>null</v>
@@ -2142,7 +2142,7 @@
         <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>Dakgebinte</v>
+        <v>Dakbedekking</v>
       </c>
       <c r="K30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2157,7 +2157,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
       </c>
       <c r="P30" t="str">
         <v>null</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2186,10 +2186,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E31" t="str">
-        <v>dakgoten</v>
+        <v>dakgebinte</v>
       </c>
       <c r="F31" t="str">
-        <v>Gebrek aan de toestand van de dakgoten</v>
+        <v>Gebrek aan de toestand van het dakgebinte</v>
       </c>
       <c r="G31" t="str">
         <v>null</v>
@@ -2201,7 +2201,7 @@
         <v>null</v>
       </c>
       <c r="J31" t="str">
-        <v>Dakgoten</v>
+        <v>Dakgebinte</v>
       </c>
       <c r="K31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2216,7 +2216,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
       </c>
       <c r="P31" t="str">
         <v>null</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2245,13 +2245,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E32" t="str">
-        <v>gebouwonderdeel</v>
+        <v>dakgoten</v>
       </c>
       <c r="F32" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>Gebrek aan de toestand van de dakgoten</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H32" t="str">
         <v>null</v>
@@ -2260,28 +2260,28 @@
         <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>Dakgoten</v>
       </c>
       <c r="K32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N32" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
       </c>
       <c r="P32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>null</v>
       </c>
       <c r="Q32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>null</v>
       </c>
       <c r="R32" t="str">
         <v>null</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2304,13 +2304,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E33" t="str">
-        <v>kroonlijst</v>
+        <v>gebouwonderdeel</v>
       </c>
       <c r="F33" t="str">
-        <v>Gebrek aan de toestand van de kroonlijst</v>
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="G33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H33" t="str">
         <v>null</v>
@@ -2319,28 +2319,28 @@
         <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>Kroonlijst</v>
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
       </c>
       <c r="K33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="N33" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
       </c>
       <c r="P33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="Q33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="R33" t="str">
         <v>null</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2363,10 +2363,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E34" t="str">
-        <v>liften</v>
+        <v>kroonlijst</v>
       </c>
       <c r="F34" t="str">
-        <v>Gebrek aan de toestand van de liften</v>
+        <v>Gebrek aan de toestand van de kroonlijst</v>
       </c>
       <c r="G34" t="str">
         <v>null</v>
@@ -2378,7 +2378,7 @@
         <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>Liften</v>
+        <v>Kroonlijst</v>
       </c>
       <c r="K34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2393,7 +2393,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
       </c>
       <c r="P34" t="str">
         <v>null</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2422,10 +2422,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E35" t="str">
-        <v>schoorstenen</v>
+        <v>liften</v>
       </c>
       <c r="F35" t="str">
-        <v>Gebrek aan de toestand van schoorstenen</v>
+        <v>Gebrek aan de toestand van de liften</v>
       </c>
       <c r="G35" t="str">
         <v>null</v>
@@ -2437,7 +2437,7 @@
         <v>null</v>
       </c>
       <c r="J35" t="str">
-        <v>Schoorstenen</v>
+        <v>Liften</v>
       </c>
       <c r="K35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
@@ -2452,7 +2452,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
       </c>
       <c r="P35" t="str">
         <v>null</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2481,13 +2481,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E36" t="str">
-        <v>stabiliteit</v>
+        <v>schoorstenen</v>
       </c>
       <c r="F36" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>Gebrek aan de toestand van schoorstenen</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H36" t="str">
         <v>null</v>
@@ -2496,22 +2496,22 @@
         <v>null</v>
       </c>
       <c r="J36" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>Schoorstenen</v>
       </c>
       <c r="K36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N36" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
       </c>
       <c r="P36" t="str">
         <v>null</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2540,13 +2540,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E37" t="str">
-        <v>trappen</v>
+        <v>stabiliteit</v>
       </c>
       <c r="F37" t="str">
-        <v>Gebrek aan de toestand van de trappen</v>
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="G37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H37" t="str">
         <v>null</v>
@@ -2555,22 +2555,22 @@
         <v>null</v>
       </c>
       <c r="J37" t="str">
-        <v>Trappen</v>
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
       </c>
       <c r="K37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="L37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="M37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N37" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
       </c>
       <c r="P37" t="str">
         <v>null</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2599,13 +2599,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E38" t="str">
-        <v>veiligheid</v>
+        <v>trappen</v>
       </c>
       <c r="F38" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>Gebrek aan de toestand van de trappen</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H38" t="str">
         <v>null</v>
@@ -2614,22 +2614,22 @@
         <v>null</v>
       </c>
       <c r="J38" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>Trappen</v>
       </c>
       <c r="K38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="L38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="M38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
       </c>
       <c r="N38" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
       </c>
       <c r="P38" t="str">
         <v>null</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2658,10 +2658,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E39" t="str">
-        <v>vochtindringing</v>
+        <v>veiligheid</v>
       </c>
       <c r="F39" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="G39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
@@ -2673,7 +2673,7 @@
         <v>null</v>
       </c>
       <c r="J39" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
       </c>
       <c r="K39" t="str">
         <v>null</v>
@@ -2688,7 +2688,7 @@
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
       </c>
       <c r="P39" t="str">
         <v>null</v>
@@ -2705,34 +2705,34 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
       </c>
       <c r="B40" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
         <v>null</v>
       </c>
       <c r="D40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="E40" t="str">
-        <v>cs_aanvraag_opschorting_heffing_reden</v>
+        <v>vochtindringing</v>
       </c>
       <c r="F40" t="str">
-        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+        <v>Gebrek dat leidt tot vochtindringing</v>
       </c>
       <c r="G40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
       <c r="H40" t="str">
-        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+        <v>null</v>
       </c>
       <c r="I40" t="str">
-        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+        <v>null</v>
       </c>
       <c r="J40" t="str">
-        <v>null</v>
+        <v>Gebrek dat leidt tot vochtindringing</v>
       </c>
       <c r="K40" t="str">
         <v>null</v>
@@ -2744,10 +2744,10 @@
         <v>null</v>
       </c>
       <c r="N40" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
       <c r="O40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
       </c>
       <c r="P40" t="str">
         <v>null</v>
@@ -2756,15 +2756,15 @@
         <v>null</v>
       </c>
       <c r="R40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="S40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/bodemsaneringsproject|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/brownfieldconvenant|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/leegstaand_niet_verwaarloosd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/nieuwe_eigenaars|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/vernieuwing</v>
+        <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2776,19 +2776,19 @@
         <v>null</v>
       </c>
       <c r="E41" t="str">
-        <v>cs_beslissing</v>
+        <v>cs_aanvraag_opschorting_heffing_reden</v>
       </c>
       <c r="F41" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
       </c>
       <c r="G41" t="str">
         <v>null</v>
       </c>
       <c r="H41" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
       </c>
       <c r="I41" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
       </c>
       <c r="J41" t="str">
         <v>null</v>
@@ -2803,7 +2803,7 @@
         <v>null</v>
       </c>
       <c r="N41" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O41" t="str">
         <v>null</v>
@@ -2818,12 +2818,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/bodemsaneringsproject|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/brownfieldconvenant|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/leegstaand_niet_verwaarloosd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/nieuwe_eigenaars|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/verlenging_bij_vernieuwing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/vernieuwing</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2835,19 +2835,19 @@
         <v>null</v>
       </c>
       <c r="E42" t="str">
-        <v>cs_procedure</v>
+        <v>cs_beslissing</v>
       </c>
       <c r="F42" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="G42" t="str">
         <v>null</v>
       </c>
       <c r="H42" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="I42" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="J42" t="str">
         <v>null</v>
@@ -2877,12 +2877,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2894,19 +2894,19 @@
         <v>null</v>
       </c>
       <c r="E43" t="str">
-        <v>cs_rol</v>
+        <v>cs_procedure</v>
       </c>
       <c r="F43" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="G43" t="str">
         <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="I43" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="J43" t="str">
         <v>null</v>
@@ -2936,12 +2936,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -2953,19 +2953,19 @@
         <v>null</v>
       </c>
       <c r="E44" t="str">
-        <v>cs_uitgesproken_gebrek</v>
+        <v>cs_rol</v>
       </c>
       <c r="F44" t="str">
-        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="G44" t="str">
         <v>null</v>
       </c>
       <c r="H44" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="I44" t="str">
-        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
       </c>
       <c r="J44" t="str">
         <v>null</v>
@@ -2995,12 +2995,71 @@
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
       <c r="S44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C45" t="str">
+        <v>null</v>
+      </c>
+      <c r="D45" t="str">
+        <v>null</v>
+      </c>
+      <c r="E45" t="str">
+        <v>cs_uitgesproken_gebrek</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
+      </c>
+      <c r="G45" t="str">
+        <v>null</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
+      </c>
+      <c r="J45" t="str">
+        <v>null</v>
+      </c>
+      <c r="K45" t="str">
+        <v>null</v>
+      </c>
+      <c r="L45" t="str">
+        <v>null</v>
+      </c>
+      <c r="M45" t="str">
+        <v>null</v>
+      </c>
+      <c r="N45" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="O45" t="str">
+        <v>null</v>
+      </c>
+      <c r="P45" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>null</v>
+      </c>
+      <c r="R45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,28 +431,28 @@
         <v>note</v>
       </c>
       <c r="J1" t="str">
+        <v>broader</v>
+      </c>
+      <c r="K1" t="str">
+        <v>broaderTransitive</v>
+      </c>
+      <c r="L1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="M1" t="str">
+        <v>narrower</v>
+      </c>
+      <c r="N1" t="str">
+        <v>narrowerTransitive</v>
+      </c>
+      <c r="O1" t="str">
         <v>altLabel</v>
       </c>
-      <c r="K1" t="str">
-        <v>broader</v>
-      </c>
-      <c r="L1" t="str">
-        <v>broaderTransitive</v>
-      </c>
-      <c r="M1" t="str">
-        <v>semanticRelation</v>
-      </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>theme</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>gekoppelde_eigenschap</v>
-      </c>
-      <c r="P1" t="str">
-        <v>narrower</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>narrowerTransitive</v>
       </c>
       <c r="R1" t="str">
         <v>belongsTo</v>
@@ -1997,22 +1997,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="D28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E28" t="str">
-        <v>buitenmuren</v>
+        <v>OPSCH_ANVRD</v>
       </c>
       <c r="F28" t="str">
-        <v>Gebrek aan de toestand van buitenmuren</v>
+        <v>Opschorting aanvaard beslissingsstuk</v>
       </c>
       <c r="G28" t="str">
         <v>null</v>
@@ -2024,22 +2024,22 @@
         <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>Buitenmuren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N28" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
+        <v>null</v>
       </c>
       <c r="P28" t="str">
         <v>null</v>
@@ -2056,22 +2056,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard</v>
       </c>
       <c r="D29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E29" t="str">
-        <v>buitentimmerwerk</v>
+        <v>OPSCH_ANVRD_BEG_BRIEF</v>
       </c>
       <c r="F29" t="str">
-        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
+        <v>Begeleidende brief bij opschorting aanvaard beslissingsstuk</v>
       </c>
       <c r="G29" t="str">
         <v>null</v>
@@ -2083,22 +2083,22 @@
         <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>Buitentimmerwerk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N29" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
+        <v>null</v>
       </c>
       <c r="P29" t="str">
         <v>null</v>
@@ -2115,22 +2115,22 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="D30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E30" t="str">
-        <v>dakbedekking</v>
+        <v>OPSCH_NANVRD</v>
       </c>
       <c r="F30" t="str">
-        <v>Gebrek aan de toestand van de dakbedekking</v>
+        <v>Opschorting niet aanvaard beslissingsstuk</v>
       </c>
       <c r="G30" t="str">
         <v>null</v>
@@ -2142,22 +2142,22 @@
         <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>Dakbedekking</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N30" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
+        <v>null</v>
       </c>
       <c r="P30" t="str">
         <v>null</v>
@@ -2174,22 +2174,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard</v>
       </c>
       <c r="D31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E31" t="str">
-        <v>dakgebinte</v>
+        <v>OPSCH_NANVRD_BEG_BRIEF</v>
       </c>
       <c r="F31" t="str">
-        <v>Gebrek aan de toestand van het dakgebinte</v>
+        <v>Begeleidende brief bij opschorting niet aanvaard beslissingsstuk</v>
       </c>
       <c r="G31" t="str">
         <v>null</v>
@@ -2201,22 +2201,22 @@
         <v>null</v>
       </c>
       <c r="J31" t="str">
-        <v>Dakgebinte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N31" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
+        <v>null</v>
       </c>
       <c r="P31" t="str">
         <v>null</v>
@@ -2233,22 +2233,22 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="D32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E32" t="str">
-        <v>dakgoten</v>
+        <v>SCHR_ANVRD</v>
       </c>
       <c r="F32" t="str">
-        <v>Gebrek aan de toestand van de dakgoten</v>
+        <v>Schrapping aanvaard beslissingsstuk</v>
       </c>
       <c r="G32" t="str">
         <v>null</v>
@@ -2260,22 +2260,22 @@
         <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>Dakgoten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N32" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
+        <v>null</v>
       </c>
       <c r="P32" t="str">
         <v>null</v>
@@ -2292,25 +2292,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="D33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E33" t="str">
-        <v>gebouwonderdeel</v>
+        <v>SCHR_NANVRD</v>
       </c>
       <c r="F33" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>Schrapping niet aanvaard beslissingsstuk</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H33" t="str">
         <v>null</v>
@@ -2319,28 +2319,28 @@
         <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>null</v>
       </c>
       <c r="N33" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="P33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>null</v>
       </c>
       <c r="Q33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>null</v>
       </c>
       <c r="R33" t="str">
         <v>null</v>
@@ -2351,22 +2351,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="D34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E34" t="str">
-        <v>kroonlijst</v>
+        <v>SCHR_NANVRD_BEG_BRIEF</v>
       </c>
       <c r="F34" t="str">
-        <v>Gebrek aan de toestand van de kroonlijst</v>
+        <v>Begeleidende brief bij schrapping niet aanvaard beslissingsstuk</v>
       </c>
       <c r="G34" t="str">
         <v>null</v>
@@ -2378,22 +2378,22 @@
         <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>Kroonlijst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N34" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
+        <v>null</v>
       </c>
       <c r="P34" t="str">
         <v>null</v>
@@ -2410,22 +2410,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="D35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E35" t="str">
-        <v>liften</v>
+        <v>BER_INGWD</v>
       </c>
       <c r="F35" t="str">
-        <v>Gebrek aan de toestand van de liften</v>
+        <v>Beroep ingewilligd beslissingsstuk</v>
       </c>
       <c r="G35" t="str">
         <v>null</v>
@@ -2437,22 +2437,22 @@
         <v>null</v>
       </c>
       <c r="J35" t="str">
-        <v>Liften</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N35" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
+        <v>null</v>
       </c>
       <c r="P35" t="str">
         <v>null</v>
@@ -2469,22 +2469,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="D36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E36" t="str">
-        <v>schoorstenen</v>
+        <v>BER_INGWD_BEG_BRIEF</v>
       </c>
       <c r="F36" t="str">
-        <v>Gebrek aan de toestand van schoorstenen</v>
+        <v>Begeleidende brief bij beroep ingewilligd beslissingsstuk</v>
       </c>
       <c r="G36" t="str">
         <v>null</v>
@@ -2496,22 +2496,22 @@
         <v>null</v>
       </c>
       <c r="J36" t="str">
-        <v>Schoorstenen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N36" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
+        <v>null</v>
       </c>
       <c r="P36" t="str">
         <v>null</v>
@@ -2528,25 +2528,25 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="D37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E37" t="str">
-        <v>stabiliteit</v>
+        <v>BER_ON</v>
       </c>
       <c r="F37" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>Beroep onontvankelijk beslissingsstuk</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H37" t="str">
         <v>null</v>
@@ -2555,22 +2555,22 @@
         <v>null</v>
       </c>
       <c r="J37" t="str">
-        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M37" t="str">
         <v>null</v>
       </c>
       <c r="N37" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
+        <v>null</v>
       </c>
       <c r="P37" t="str">
         <v>null</v>
@@ -2587,22 +2587,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="D38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E38" t="str">
-        <v>trappen</v>
+        <v>BER_ON_BEG_BRIEF</v>
       </c>
       <c r="F38" t="str">
-        <v>Gebrek aan de toestand van de trappen</v>
+        <v>Begeleidende brief bij beroep onontvankelijk beslissingsstuk</v>
       </c>
       <c r="G38" t="str">
         <v>null</v>
@@ -2614,22 +2614,22 @@
         <v>null</v>
       </c>
       <c r="J38" t="str">
-        <v>Trappen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+        <v>null</v>
       </c>
       <c r="N38" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
+        <v>null</v>
       </c>
       <c r="P38" t="str">
         <v>null</v>
@@ -2646,25 +2646,25 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="D39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E39" t="str">
-        <v>veiligheid</v>
+        <v>BER_VERWN</v>
       </c>
       <c r="F39" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>Beroep verworpen beslissingsstuk</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H39" t="str">
         <v>null</v>
@@ -2673,22 +2673,22 @@
         <v>null</v>
       </c>
       <c r="J39" t="str">
-        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M39" t="str">
         <v>null</v>
       </c>
       <c r="N39" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
+        <v>null</v>
       </c>
       <c r="P39" t="str">
         <v>null</v>
@@ -2705,25 +2705,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="D40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E40" t="str">
-        <v>vochtindringing</v>
+        <v>BER_VERWN_BEG_BRIEF</v>
       </c>
       <c r="F40" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>Begeleidende brief bij beroep verworpen beslissingsstuk</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+        <v>null</v>
       </c>
       <c r="H40" t="str">
         <v>null</v>
@@ -2732,22 +2732,22 @@
         <v>null</v>
       </c>
       <c r="J40" t="str">
-        <v>Gebrek dat leidt tot vochtindringing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M40" t="str">
         <v>null</v>
       </c>
       <c r="N40" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
+        <v>null</v>
       </c>
       <c r="P40" t="str">
         <v>null</v>
@@ -2764,31 +2764,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="B41" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
         <v>null</v>
       </c>
       <c r="D41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E41" t="str">
-        <v>cs_aanvraag_opschorting_heffing_reden</v>
+        <v>beslissingsstuk</v>
       </c>
       <c r="F41" t="str">
-        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+        <v>Stuk dat voortkomt uit een beslissing</v>
       </c>
       <c r="G41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="H41" t="str">
-        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+        <v>null</v>
       </c>
       <c r="I41" t="str">
-        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+        <v>null</v>
       </c>
       <c r="J41" t="str">
         <v>null</v>
@@ -2797,13 +2797,13 @@
         <v>null</v>
       </c>
       <c r="L41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
       </c>
       <c r="M41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
       </c>
       <c r="N41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
       </c>
       <c r="O41" t="str">
         <v>null</v>
@@ -2815,54 +2815,54 @@
         <v>null</v>
       </c>
       <c r="R41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="S41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/bodemsaneringsproject|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/brownfieldconvenant|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/leegstaand_niet_verwaarloosd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/nieuwe_eigenaars|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/verlenging_bij_vernieuwing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/vernieuwing</v>
+        <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/foto</v>
       </c>
       <c r="B42" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
         <v>null</v>
       </c>
       <c r="D42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E42" t="str">
-        <v>cs_beslissing</v>
+        <v>FOTO</v>
       </c>
       <c r="F42" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Foto</v>
       </c>
       <c r="G42" t="str">
         <v>null</v>
       </c>
       <c r="H42" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="I42" t="str">
-        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="J42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
       </c>
       <c r="K42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
       </c>
       <c r="L42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
       </c>
       <c r="M42" t="str">
         <v>null</v>
       </c>
       <c r="N42" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O42" t="str">
         <v>null</v>
@@ -2874,54 +2874,54 @@
         <v>null</v>
       </c>
       <c r="R42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="S42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+        <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedure_inkomend_stuk</v>
       </c>
       <c r="B43" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
         <v>null</v>
       </c>
       <c r="D43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E43" t="str">
-        <v>cs_procedure</v>
+        <v>PRO_INKOMEND_STUK</v>
       </c>
       <c r="F43" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Inkomend stuk op een procedure</v>
       </c>
       <c r="G43" t="str">
         <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="I43" t="str">
-        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="J43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="K43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="L43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="M43" t="str">
         <v>null</v>
       </c>
       <c r="N43" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>null</v>
       </c>
       <c r="O43" t="str">
         <v>null</v>
@@ -2933,39 +2933,39 @@
         <v>null</v>
       </c>
       <c r="R43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="S43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+        <v>null</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="B44" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
         <v>null</v>
       </c>
       <c r="D44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E44" t="str">
-        <v>cs_rol</v>
+        <v>procedurestuk</v>
       </c>
       <c r="F44" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>Stuk gerelateerd aan een procedure</v>
       </c>
       <c r="G44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="H44" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="I44" t="str">
-        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+        <v>null</v>
       </c>
       <c r="J44" t="str">
         <v>null</v>
@@ -2974,13 +2974,13 @@
         <v>null</v>
       </c>
       <c r="L44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedure_inkomend_stuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender</v>
       </c>
       <c r="M44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedure_inkomend_stuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender</v>
       </c>
       <c r="N44" t="str">
-        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedure_inkomend_stuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender</v>
       </c>
       <c r="O44" t="str">
         <v>null</v>
@@ -2992,74 +2992,1549 @@
         <v>null</v>
       </c>
       <c r="R44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+        <v>null</v>
       </c>
       <c r="S44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+        <v>null</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris</v>
+      </c>
+      <c r="D45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="E45" t="str">
+        <v>REG_ATT</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Registratie attest</v>
+      </c>
+      <c r="G45" t="str">
+        <v>null</v>
+      </c>
+      <c r="H45" t="str">
+        <v>null</v>
+      </c>
+      <c r="I45" t="str">
+        <v>null</v>
+      </c>
+      <c r="J45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="K45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="L45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="M45" t="str">
+        <v>null</v>
+      </c>
+      <c r="N45" t="str">
+        <v>null</v>
+      </c>
+      <c r="O45" t="str">
+        <v>null</v>
+      </c>
+      <c r="P45" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>null</v>
+      </c>
+      <c r="R45" t="str">
+        <v>null</v>
+      </c>
+      <c r="S45" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest_begeleidende_brief</v>
+      </c>
+      <c r="B46" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest</v>
+      </c>
+      <c r="D46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="E46" t="str">
+        <v>REG_ATT_BEG_BRIEF</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Begeleidende brief bij een registratie attest</v>
+      </c>
+      <c r="G46" t="str">
+        <v>null</v>
+      </c>
+      <c r="H46" t="str">
+        <v>null</v>
+      </c>
+      <c r="I46" t="str">
+        <v>null</v>
+      </c>
+      <c r="J46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="K46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="L46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="M46" t="str">
+        <v>null</v>
+      </c>
+      <c r="N46" t="str">
+        <v>null</v>
+      </c>
+      <c r="O46" t="str">
+        <v>null</v>
+      </c>
+      <c r="P46" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>null</v>
+      </c>
+      <c r="R46" t="str">
+        <v>null</v>
+      </c>
+      <c r="S46" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender</v>
+      </c>
+      <c r="B47" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C47" t="str">
+        <v>null</v>
+      </c>
+      <c r="D47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="E47" t="str">
+        <v>RETOUR_AFZENDER</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Retour afzender</v>
+      </c>
+      <c r="G47" t="str">
+        <v>null</v>
+      </c>
+      <c r="H47" t="str">
+        <v>null</v>
+      </c>
+      <c r="I47" t="str">
+        <v>null</v>
+      </c>
+      <c r="J47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+      </c>
+      <c r="K47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+      </c>
+      <c r="L47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+      </c>
+      <c r="M47" t="str">
+        <v>null</v>
+      </c>
+      <c r="N47" t="str">
+        <v>null</v>
+      </c>
+      <c r="O47" t="str">
+        <v>null</v>
+      </c>
+      <c r="P47" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>null</v>
+      </c>
+      <c r="R47" t="str">
+        <v>null</v>
+      </c>
+      <c r="S47" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard</v>
+      </c>
+      <c r="D48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="E48" t="str">
+        <v>SCHR_ANVRD_BEG_BRIEF</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Begeleidende brief bij schrapping aanvaard beslissingsstuk</v>
+      </c>
+      <c r="G48" t="str">
+        <v>null</v>
+      </c>
+      <c r="H48" t="str">
+        <v>null</v>
+      </c>
+      <c r="I48" t="str">
+        <v>null</v>
+      </c>
+      <c r="J48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="K48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="L48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+      </c>
+      <c r="M48" t="str">
+        <v>null</v>
+      </c>
+      <c r="N48" t="str">
+        <v>null</v>
+      </c>
+      <c r="O48" t="str">
+        <v>null</v>
+      </c>
+      <c r="P48" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>null</v>
+      </c>
+      <c r="R48" t="str">
+        <v>null</v>
+      </c>
+      <c r="S48" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+      </c>
+      <c r="B49" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C49" t="str">
+        <v>null</v>
+      </c>
+      <c r="D49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="E49" t="str">
+        <v>stavingsstuk</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Stavingsstuk bij een vaststelling</v>
+      </c>
+      <c r="G49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="H49" t="str">
+        <v>null</v>
+      </c>
+      <c r="I49" t="str">
+        <v>null</v>
+      </c>
+      <c r="J49" t="str">
+        <v>null</v>
+      </c>
+      <c r="K49" t="str">
+        <v>null</v>
+      </c>
+      <c r="L49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/foto|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/varia|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/verslag</v>
+      </c>
+      <c r="M49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/foto|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/varia|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/verslag</v>
+      </c>
+      <c r="N49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/foto|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/varia|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/verslag</v>
+      </c>
+      <c r="O49" t="str">
+        <v>null</v>
+      </c>
+      <c r="P49" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>null</v>
+      </c>
+      <c r="R49" t="str">
+        <v>null</v>
+      </c>
+      <c r="S49" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/varia</v>
+      </c>
+      <c r="B50" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C50" t="str">
+        <v>null</v>
+      </c>
+      <c r="D50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="E50" t="str">
+        <v>VARIA</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Varia</v>
+      </c>
+      <c r="G50" t="str">
+        <v>null</v>
+      </c>
+      <c r="H50" t="str">
+        <v>null</v>
+      </c>
+      <c r="I50" t="str">
+        <v>null</v>
+      </c>
+      <c r="J50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+      </c>
+      <c r="K50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+      </c>
+      <c r="L50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+      </c>
+      <c r="M50" t="str">
+        <v>null</v>
+      </c>
+      <c r="N50" t="str">
+        <v>null</v>
+      </c>
+      <c r="O50" t="str">
+        <v>null</v>
+      </c>
+      <c r="P50" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>null</v>
+      </c>
+      <c r="R50" t="str">
+        <v>null</v>
+      </c>
+      <c r="S50" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/verslag</v>
+      </c>
+      <c r="B51" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C51" t="str">
+        <v>null</v>
+      </c>
+      <c r="D51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="E51" t="str">
+        <v>VERSLAG</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Verslag</v>
+      </c>
+      <c r="G51" t="str">
+        <v>null</v>
+      </c>
+      <c r="H51" t="str">
+        <v>null</v>
+      </c>
+      <c r="I51" t="str">
+        <v>null</v>
+      </c>
+      <c r="J51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+      </c>
+      <c r="K51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+      </c>
+      <c r="L51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+      </c>
+      <c r="M51" t="str">
+        <v>null</v>
+      </c>
+      <c r="N51" t="str">
+        <v>null</v>
+      </c>
+      <c r="O51" t="str">
+        <v>null</v>
+      </c>
+      <c r="P51" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>null</v>
+      </c>
+      <c r="R51" t="str">
+        <v>null</v>
+      </c>
+      <c r="S51" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren</v>
+      </c>
+      <c r="B52" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C52" t="str">
+        <v>null</v>
+      </c>
+      <c r="D52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
       </c>
-      <c r="B45" t="str">
+      <c r="E52" t="str">
+        <v>buitenmuren</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Gebrek aan de toestand van buitenmuren</v>
+      </c>
+      <c r="G52" t="str">
+        <v>null</v>
+      </c>
+      <c r="H52" t="str">
+        <v>null</v>
+      </c>
+      <c r="I52" t="str">
+        <v>null</v>
+      </c>
+      <c r="J52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M52" t="str">
+        <v>null</v>
+      </c>
+      <c r="N52" t="str">
+        <v>null</v>
+      </c>
+      <c r="O52" t="str">
+        <v>Buitenmuren</v>
+      </c>
+      <c r="P52" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitenmuren</v>
+      </c>
+      <c r="R52" t="str">
+        <v>null</v>
+      </c>
+      <c r="S52" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk</v>
+      </c>
+      <c r="B53" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C53" t="str">
+        <v>null</v>
+      </c>
+      <c r="D53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E53" t="str">
+        <v>buitentimmerwerk</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Gebrek aan de toestand van het buitentimmerwerk</v>
+      </c>
+      <c r="G53" t="str">
+        <v>null</v>
+      </c>
+      <c r="H53" t="str">
+        <v>null</v>
+      </c>
+      <c r="I53" t="str">
+        <v>null</v>
+      </c>
+      <c r="J53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M53" t="str">
+        <v>null</v>
+      </c>
+      <c r="N53" t="str">
+        <v>null</v>
+      </c>
+      <c r="O53" t="str">
+        <v>Buitentimmerwerk</v>
+      </c>
+      <c r="P53" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_buitentimmerwerk</v>
+      </c>
+      <c r="R53" t="str">
+        <v>null</v>
+      </c>
+      <c r="S53" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking</v>
+      </c>
+      <c r="B54" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C54" t="str">
+        <v>null</v>
+      </c>
+      <c r="D54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E54" t="str">
+        <v>dakbedekking</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Gebrek aan de toestand van de dakbedekking</v>
+      </c>
+      <c r="G54" t="str">
+        <v>null</v>
+      </c>
+      <c r="H54" t="str">
+        <v>null</v>
+      </c>
+      <c r="I54" t="str">
+        <v>null</v>
+      </c>
+      <c r="J54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M54" t="str">
+        <v>null</v>
+      </c>
+      <c r="N54" t="str">
+        <v>null</v>
+      </c>
+      <c r="O54" t="str">
+        <v>Dakbedekking</v>
+      </c>
+      <c r="P54" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakbedekking</v>
+      </c>
+      <c r="R54" t="str">
+        <v>null</v>
+      </c>
+      <c r="S54" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte</v>
+      </c>
+      <c r="B55" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C55" t="str">
+        <v>null</v>
+      </c>
+      <c r="D55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E55" t="str">
+        <v>dakgebinte</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Gebrek aan de toestand van het dakgebinte</v>
+      </c>
+      <c r="G55" t="str">
+        <v>null</v>
+      </c>
+      <c r="H55" t="str">
+        <v>null</v>
+      </c>
+      <c r="I55" t="str">
+        <v>null</v>
+      </c>
+      <c r="J55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M55" t="str">
+        <v>null</v>
+      </c>
+      <c r="N55" t="str">
+        <v>null</v>
+      </c>
+      <c r="O55" t="str">
+        <v>Dakgebinte</v>
+      </c>
+      <c r="P55" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgebinte</v>
+      </c>
+      <c r="R55" t="str">
+        <v>null</v>
+      </c>
+      <c r="S55" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten</v>
+      </c>
+      <c r="B56" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C56" t="str">
+        <v>null</v>
+      </c>
+      <c r="D56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E56" t="str">
+        <v>dakgoten</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Gebrek aan de toestand van de dakgoten</v>
+      </c>
+      <c r="G56" t="str">
+        <v>null</v>
+      </c>
+      <c r="H56" t="str">
+        <v>null</v>
+      </c>
+      <c r="I56" t="str">
+        <v>null</v>
+      </c>
+      <c r="J56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M56" t="str">
+        <v>null</v>
+      </c>
+      <c r="N56" t="str">
+        <v>null</v>
+      </c>
+      <c r="O56" t="str">
+        <v>Dakgoten</v>
+      </c>
+      <c r="P56" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_dakgoten</v>
+      </c>
+      <c r="R56" t="str">
+        <v>null</v>
+      </c>
+      <c r="S56" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="B57" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C57" t="str">
+        <v>null</v>
+      </c>
+      <c r="D57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E57" t="str">
+        <v>gebouwonderdeel</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+      </c>
+      <c r="G57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="H57" t="str">
+        <v>null</v>
+      </c>
+      <c r="I57" t="str">
+        <v>null</v>
+      </c>
+      <c r="J57" t="str">
+        <v>null</v>
+      </c>
+      <c r="K57" t="str">
+        <v>null</v>
+      </c>
+      <c r="L57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="M57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="N57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitenmuren|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/buitentimmerwerk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakbedekking|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgebinte|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/dakgoten|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="O57" t="str">
+        <v>Gebrek aan de toestand van een gebouwonderdeel</v>
+      </c>
+      <c r="P57" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_gebouwonderdeel</v>
+      </c>
+      <c r="R57" t="str">
+        <v>null</v>
+      </c>
+      <c r="S57" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/kroonlijst</v>
+      </c>
+      <c r="B58" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C58" t="str">
+        <v>null</v>
+      </c>
+      <c r="D58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E58" t="str">
+        <v>kroonlijst</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Gebrek aan de toestand van de kroonlijst</v>
+      </c>
+      <c r="G58" t="str">
+        <v>null</v>
+      </c>
+      <c r="H58" t="str">
+        <v>null</v>
+      </c>
+      <c r="I58" t="str">
+        <v>null</v>
+      </c>
+      <c r="J58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M58" t="str">
+        <v>null</v>
+      </c>
+      <c r="N58" t="str">
+        <v>null</v>
+      </c>
+      <c r="O58" t="str">
+        <v>Kroonlijst</v>
+      </c>
+      <c r="P58" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_kroonlijst</v>
+      </c>
+      <c r="R58" t="str">
+        <v>null</v>
+      </c>
+      <c r="S58" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/liften</v>
+      </c>
+      <c r="B59" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C59" t="str">
+        <v>null</v>
+      </c>
+      <c r="D59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E59" t="str">
+        <v>liften</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Gebrek aan de toestand van de liften</v>
+      </c>
+      <c r="G59" t="str">
+        <v>null</v>
+      </c>
+      <c r="H59" t="str">
+        <v>null</v>
+      </c>
+      <c r="I59" t="str">
+        <v>null</v>
+      </c>
+      <c r="J59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M59" t="str">
+        <v>null</v>
+      </c>
+      <c r="N59" t="str">
+        <v>null</v>
+      </c>
+      <c r="O59" t="str">
+        <v>Liften</v>
+      </c>
+      <c r="P59" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_liften</v>
+      </c>
+      <c r="R59" t="str">
+        <v>null</v>
+      </c>
+      <c r="S59" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/schoorstenen</v>
+      </c>
+      <c r="B60" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C60" t="str">
+        <v>null</v>
+      </c>
+      <c r="D60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E60" t="str">
+        <v>schoorstenen</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Gebrek aan de toestand van schoorstenen</v>
+      </c>
+      <c r="G60" t="str">
+        <v>null</v>
+      </c>
+      <c r="H60" t="str">
+        <v>null</v>
+      </c>
+      <c r="I60" t="str">
+        <v>null</v>
+      </c>
+      <c r="J60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M60" t="str">
+        <v>null</v>
+      </c>
+      <c r="N60" t="str">
+        <v>null</v>
+      </c>
+      <c r="O60" t="str">
+        <v>Schoorstenen</v>
+      </c>
+      <c r="P60" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_schoorstenen</v>
+      </c>
+      <c r="R60" t="str">
+        <v>null</v>
+      </c>
+      <c r="S60" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit</v>
+      </c>
+      <c r="B61" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C61" t="str">
+        <v>null</v>
+      </c>
+      <c r="D61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E61" t="str">
+        <v>stabiliteit</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+      </c>
+      <c r="G61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="H61" t="str">
+        <v>null</v>
+      </c>
+      <c r="I61" t="str">
+        <v>null</v>
+      </c>
+      <c r="J61" t="str">
+        <v>null</v>
+      </c>
+      <c r="K61" t="str">
+        <v>null</v>
+      </c>
+      <c r="L61" t="str">
+        <v>null</v>
+      </c>
+      <c r="M61" t="str">
+        <v>null</v>
+      </c>
+      <c r="N61" t="str">
+        <v>null</v>
+      </c>
+      <c r="O61" t="str">
+        <v>Gebrek dat stabiliteit in het gedrang brengt</v>
+      </c>
+      <c r="P61" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_stabiliteit</v>
+      </c>
+      <c r="R61" t="str">
+        <v>null</v>
+      </c>
+      <c r="S61" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/trappen</v>
+      </c>
+      <c r="B62" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C62" t="str">
+        <v>null</v>
+      </c>
+      <c r="D62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E62" t="str">
+        <v>trappen</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Gebrek aan de toestand van de trappen</v>
+      </c>
+      <c r="G62" t="str">
+        <v>null</v>
+      </c>
+      <c r="H62" t="str">
+        <v>null</v>
+      </c>
+      <c r="I62" t="str">
+        <v>null</v>
+      </c>
+      <c r="J62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="K62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="L62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel</v>
+      </c>
+      <c r="M62" t="str">
+        <v>null</v>
+      </c>
+      <c r="N62" t="str">
+        <v>null</v>
+      </c>
+      <c r="O62" t="str">
+        <v>Trappen</v>
+      </c>
+      <c r="P62" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_trappen</v>
+      </c>
+      <c r="R62" t="str">
+        <v>null</v>
+      </c>
+      <c r="S62" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid</v>
+      </c>
+      <c r="B63" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C63" t="str">
+        <v>null</v>
+      </c>
+      <c r="D63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E63" t="str">
+        <v>veiligheid</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+      </c>
+      <c r="G63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="H63" t="str">
+        <v>null</v>
+      </c>
+      <c r="I63" t="str">
+        <v>null</v>
+      </c>
+      <c r="J63" t="str">
+        <v>null</v>
+      </c>
+      <c r="K63" t="str">
+        <v>null</v>
+      </c>
+      <c r="L63" t="str">
+        <v>null</v>
+      </c>
+      <c r="M63" t="str">
+        <v>null</v>
+      </c>
+      <c r="N63" t="str">
+        <v>null</v>
+      </c>
+      <c r="O63" t="str">
+        <v>Gebrek dat veiligheid in het gedrang brengt</v>
+      </c>
+      <c r="P63" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_veiligheid</v>
+      </c>
+      <c r="R63" t="str">
+        <v>null</v>
+      </c>
+      <c r="S63" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
+      </c>
+      <c r="B64" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C64" t="str">
+        <v>null</v>
+      </c>
+      <c r="D64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="E64" t="str">
+        <v>vochtindringing</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Gebrek dat leidt tot vochtindringing</v>
+      </c>
+      <c r="G64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="H64" t="str">
+        <v>null</v>
+      </c>
+      <c r="I64" t="str">
+        <v>null</v>
+      </c>
+      <c r="J64" t="str">
+        <v>null</v>
+      </c>
+      <c r="K64" t="str">
+        <v>null</v>
+      </c>
+      <c r="L64" t="str">
+        <v>null</v>
+      </c>
+      <c r="M64" t="str">
+        <v>null</v>
+      </c>
+      <c r="N64" t="str">
+        <v>null</v>
+      </c>
+      <c r="O64" t="str">
+        <v>Gebrek dat leidt tot vochtindringing</v>
+      </c>
+      <c r="P64" t="str">
+        <v>http://www.eionet.europa.eu/gemet/theme/5</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/ns/verwaarlozing#vertoont_gebrek_ivm_vochtindringing</v>
+      </c>
+      <c r="R64" t="str">
+        <v>null</v>
+      </c>
+      <c r="S64" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/aanvraag_opschorting_heffing_reden</v>
+      </c>
+      <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C45" t="str">
-        <v>null</v>
-      </c>
-      <c r="D45" t="str">
-        <v>null</v>
-      </c>
-      <c r="E45" t="str">
+      <c r="C65" t="str">
+        <v>null</v>
+      </c>
+      <c r="D65" t="str">
+        <v>null</v>
+      </c>
+      <c r="E65" t="str">
+        <v>cs_aanvraag_opschorting_heffing_reden</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+      </c>
+      <c r="G65" t="str">
+        <v>null</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Conceptschema over reden voor een procedure aanvraag opschorting heffing</v>
+      </c>
+      <c r="J65" t="str">
+        <v>null</v>
+      </c>
+      <c r="K65" t="str">
+        <v>null</v>
+      </c>
+      <c r="L65" t="str">
+        <v>null</v>
+      </c>
+      <c r="M65" t="str">
+        <v>null</v>
+      </c>
+      <c r="N65" t="str">
+        <v>null</v>
+      </c>
+      <c r="O65" t="str">
+        <v>null</v>
+      </c>
+      <c r="P65" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>null</v>
+      </c>
+      <c r="R65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/bodemsaneringsproject|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/brownfieldconvenant|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/leegstaand_niet_verwaarloosd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/nieuwe_eigenaars|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/verlenging_bij_vernieuwing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/aanvraag_opschorting_heffing_reden/vernieuwing</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/beslissing</v>
+      </c>
+      <c r="B66" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C66" t="str">
+        <v>null</v>
+      </c>
+      <c r="D66" t="str">
+        <v>null</v>
+      </c>
+      <c r="E66" t="str">
+        <v>cs_beslissing</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="G66" t="str">
+        <v>null</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Conceptschema over beslissingen die genomen kunnen worden binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="J66" t="str">
+        <v>null</v>
+      </c>
+      <c r="K66" t="str">
+        <v>null</v>
+      </c>
+      <c r="L66" t="str">
+        <v>null</v>
+      </c>
+      <c r="M66" t="str">
+        <v>null</v>
+      </c>
+      <c r="N66" t="str">
+        <v>null</v>
+      </c>
+      <c r="O66" t="str">
+        <v>null</v>
+      </c>
+      <c r="P66" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>null</v>
+      </c>
+      <c r="R66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geschrapt_uit_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/heffing_opgeschort|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/niet_geregistreerd_in_inventaris|https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/registratie_ingetrokken</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/procedure</v>
+      </c>
+      <c r="B67" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C67" t="str">
+        <v>null</v>
+      </c>
+      <c r="D67" t="str">
+        <v>null</v>
+      </c>
+      <c r="E67" t="str">
+        <v>cs_procedure</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="G67" t="str">
+        <v>null</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Conceptschema over procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="J67" t="str">
+        <v>null</v>
+      </c>
+      <c r="K67" t="str">
+        <v>null</v>
+      </c>
+      <c r="L67" t="str">
+        <v>null</v>
+      </c>
+      <c r="M67" t="str">
+        <v>null</v>
+      </c>
+      <c r="N67" t="str">
+        <v>null</v>
+      </c>
+      <c r="O67" t="str">
+        <v>null</v>
+      </c>
+      <c r="P67" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>null</v>
+      </c>
+      <c r="R67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_opschorting_heffing|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/aanvraag_schrapping|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/beroep_tegen_registratie|https://data.omgeving.vlaanderen.be/id/concept/leegstand/procedure/registreren</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/rol</v>
+      </c>
+      <c r="B68" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C68" t="str">
+        <v>null</v>
+      </c>
+      <c r="D68" t="str">
+        <v>null</v>
+      </c>
+      <c r="E68" t="str">
+        <v>cs_rol</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="G68" t="str">
+        <v>null</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Conceptschema over rollen van agenten binnen procedures in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="J68" t="str">
+        <v>null</v>
+      </c>
+      <c r="K68" t="str">
+        <v>null</v>
+      </c>
+      <c r="L68" t="str">
+        <v>null</v>
+      </c>
+      <c r="M68" t="str">
+        <v>null</v>
+      </c>
+      <c r="N68" t="str">
+        <v>null</v>
+      </c>
+      <c r="O68" t="str">
+        <v>null</v>
+      </c>
+      <c r="P68" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>null</v>
+      </c>
+      <c r="R68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/curator|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/eigenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/instrumenterend_ambtenaar|https://data.omgeving.vlaanderen.be/id/concept/leegstand/rol/raadsman</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+      </c>
+      <c r="B69" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C69" t="str">
+        <v>null</v>
+      </c>
+      <c r="D69" t="str">
+        <v>null</v>
+      </c>
+      <c r="E69" t="str">
+        <v>cs_stuk</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Conceptschema over stukken in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="G69" t="str">
+        <v>null</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Conceptschema over stukken in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Conceptschema over stukken in het kader van leegstaande en verwaarloosde bedrijfsruimten.</v>
+      </c>
+      <c r="J69" t="str">
+        <v>null</v>
+      </c>
+      <c r="K69" t="str">
+        <v>null</v>
+      </c>
+      <c r="L69" t="str">
+        <v>null</v>
+      </c>
+      <c r="M69" t="str">
+        <v>null</v>
+      </c>
+      <c r="N69" t="str">
+        <v>null</v>
+      </c>
+      <c r="O69" t="str">
+        <v>null</v>
+      </c>
+      <c r="P69" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>null</v>
+      </c>
+      <c r="R69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
+      </c>
+      <c r="S69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/uitgesproken_gebrek</v>
+      </c>
+      <c r="B70" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C70" t="str">
+        <v>null</v>
+      </c>
+      <c r="D70" t="str">
+        <v>null</v>
+      </c>
+      <c r="E70" t="str">
         <v>cs_uitgesproken_gebrek</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F70" t="str">
         <v>Conceptschema over kenmerken van verwaarlozing aan gebouwen.</v>
       </c>
-      <c r="G45" t="str">
-        <v>null</v>
-      </c>
-      <c r="H45" t="str">
+      <c r="G70" t="str">
+        <v>null</v>
+      </c>
+      <c r="H70" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I70" t="str">
         <v>Het vertonen van uitgesproken gebreken van algemene of beperkte omvang van bedrijfsverwaarlozing. De Vlaamse regering bepaalt de gebreken van algemene en beperkte omvang, alsook de criteria voor de beoordeling van de gebreken en de minimumnorm van de te vertonen gebreken om een bedrijfsruimte al dan niet als geheel of gedeeltelijk verwaarloosd te beschouwen;</v>
       </c>
-      <c r="J45" t="str">
-        <v>null</v>
-      </c>
-      <c r="K45" t="str">
-        <v>null</v>
-      </c>
-      <c r="L45" t="str">
-        <v>null</v>
-      </c>
-      <c r="M45" t="str">
-        <v>null</v>
-      </c>
-      <c r="N45" t="str">
+      <c r="J70" t="str">
+        <v>null</v>
+      </c>
+      <c r="K70" t="str">
+        <v>null</v>
+      </c>
+      <c r="L70" t="str">
+        <v>null</v>
+      </c>
+      <c r="M70" t="str">
+        <v>null</v>
+      </c>
+      <c r="N70" t="str">
+        <v>null</v>
+      </c>
+      <c r="O70" t="str">
+        <v>null</v>
+      </c>
+      <c r="P70" t="str">
         <v>http://www.eionet.europa.eu/gemet/theme/5</v>
       </c>
-      <c r="O45" t="str">
-        <v>null</v>
-      </c>
-      <c r="P45" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q45" t="str">
-        <v>null</v>
-      </c>
-      <c r="R45" t="str">
+      <c r="Q70" t="str">
+        <v>null</v>
+      </c>
+      <c r="R70" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-verwaarlozing</v>
       </c>
-      <c r="S45" t="str">
+      <c r="S70" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/gebouwonderdeel|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/stabiliteit|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/veiligheid|https://data.omgeving.vlaanderen.be/id/concept/leegstand/uitgesproken_gebrek/vochtindringing</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S70"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -2012,7 +2012,7 @@
         <v>OPSCH_ANVRD</v>
       </c>
       <c r="F28" t="str">
-        <v>Opschorting aanvaard beslissingsstuk</v>
+        <v>Opschorting aanvaard</v>
       </c>
       <c r="G28" t="str">
         <v>null</v>
@@ -2071,7 +2071,7 @@
         <v>OPSCH_ANVRD_BEG_BRIEF</v>
       </c>
       <c r="F29" t="str">
-        <v>Begeleidende brief bij opschorting aanvaard beslissingsstuk</v>
+        <v>Begeleidende brief bij opschorting aanvaard</v>
       </c>
       <c r="G29" t="str">
         <v>null</v>
@@ -2130,7 +2130,7 @@
         <v>OPSCH_NANVRD</v>
       </c>
       <c r="F30" t="str">
-        <v>Opschorting niet aanvaard beslissingsstuk</v>
+        <v>Opschorting niet aanvaard</v>
       </c>
       <c r="G30" t="str">
         <v>null</v>
@@ -2189,7 +2189,7 @@
         <v>OPSCH_NANVRD_BEG_BRIEF</v>
       </c>
       <c r="F31" t="str">
-        <v>Begeleidende brief bij opschorting niet aanvaard beslissingsstuk</v>
+        <v>Begeleidende brief bij opschorting niet aanvaard</v>
       </c>
       <c r="G31" t="str">
         <v>null</v>
@@ -2248,7 +2248,7 @@
         <v>SCHR_ANVRD</v>
       </c>
       <c r="F32" t="str">
-        <v>Schrapping aanvaard beslissingsstuk</v>
+        <v>Schrapping aanvaard</v>
       </c>
       <c r="G32" t="str">
         <v>null</v>
@@ -2307,7 +2307,7 @@
         <v>SCHR_NANVRD</v>
       </c>
       <c r="F33" t="str">
-        <v>Schrapping niet aanvaard beslissingsstuk</v>
+        <v>Schrapping niet aanvaard</v>
       </c>
       <c r="G33" t="str">
         <v>null</v>
@@ -2366,7 +2366,7 @@
         <v>SCHR_NANVRD_BEG_BRIEF</v>
       </c>
       <c r="F34" t="str">
-        <v>Begeleidende brief bij schrapping niet aanvaard beslissingsstuk</v>
+        <v>Begeleidende brief bij schrapping niet aanvaard</v>
       </c>
       <c r="G34" t="str">
         <v>null</v>
@@ -2425,7 +2425,7 @@
         <v>BER_INGWD</v>
       </c>
       <c r="F35" t="str">
-        <v>Beroep ingewilligd beslissingsstuk</v>
+        <v>Beroep ingewilligd</v>
       </c>
       <c r="G35" t="str">
         <v>null</v>
@@ -2484,7 +2484,7 @@
         <v>BER_INGWD_BEG_BRIEF</v>
       </c>
       <c r="F36" t="str">
-        <v>Begeleidende brief bij beroep ingewilligd beslissingsstuk</v>
+        <v>Begeleidende brief bij beroep ingewilligd</v>
       </c>
       <c r="G36" t="str">
         <v>null</v>
@@ -2543,7 +2543,7 @@
         <v>BER_ON</v>
       </c>
       <c r="F37" t="str">
-        <v>Beroep onontvankelijk beslissingsstuk</v>
+        <v>Beroep onontvankelijk verklaard</v>
       </c>
       <c r="G37" t="str">
         <v>null</v>
@@ -2602,7 +2602,7 @@
         <v>BER_ON_BEG_BRIEF</v>
       </c>
       <c r="F38" t="str">
-        <v>Begeleidende brief bij beroep onontvankelijk beslissingsstuk</v>
+        <v>Begeleidende brief bij beroep onontvankelijk verklaard</v>
       </c>
       <c r="G38" t="str">
         <v>null</v>
@@ -2661,7 +2661,7 @@
         <v>BER_VERWN</v>
       </c>
       <c r="F39" t="str">
-        <v>Beroep verworpen beslissingsstuk</v>
+        <v>Beroep verworpen</v>
       </c>
       <c r="G39" t="str">
         <v>null</v>
@@ -2720,7 +2720,7 @@
         <v>BER_VERWN_BEG_BRIEF</v>
       </c>
       <c r="F40" t="str">
-        <v>Begeleidende brief bij beroep verworpen beslissingsstuk</v>
+        <v>Begeleidende brief bij beroep verworpen</v>
       </c>
       <c r="G40" t="str">
         <v>null</v>
@@ -2797,13 +2797,13 @@
         <v>null</v>
       </c>
       <c r="L41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
       </c>
       <c r="M41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
       </c>
       <c r="N41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
       </c>
       <c r="O41" t="str">
         <v>null</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedure_inkomend_stuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2894,10 +2894,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E43" t="str">
-        <v>PRO_INKOMEND_STUK</v>
+        <v>INKOMEND_PROCEDURESTUK</v>
       </c>
       <c r="F43" t="str">
-        <v>Inkomend stuk op een procedure</v>
+        <v>Inkomend procedurestuk</v>
       </c>
       <c r="G43" t="str">
         <v>null</v>
@@ -2974,13 +2974,13 @@
         <v>null</v>
       </c>
       <c r="L44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedure_inkomend_stuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
       </c>
       <c r="M44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedure_inkomend_stuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
       </c>
       <c r="N44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedure_inkomend_stuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
       </c>
       <c r="O44" t="str">
         <v>null</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3012,10 +3012,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E45" t="str">
-        <v>REG_ATT</v>
+        <v>REGATT</v>
       </c>
       <c r="F45" t="str">
-        <v>Registratie attest</v>
+        <v>Registratieattest</v>
       </c>
       <c r="G45" t="str">
         <v>null</v>
@@ -3059,22 +3059,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratie_attest</v>
+        <v>null</v>
       </c>
       <c r="D46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E46" t="str">
-        <v>REG_ATT_BEG_BRIEF</v>
+        <v>REGATT_BEG_BRIEF</v>
       </c>
       <c r="F46" t="str">
-        <v>Begeleidende brief bij een registratie attest</v>
+        <v>Begeleidende brief bij een registratieattest</v>
       </c>
       <c r="G46" t="str">
         <v>null</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3130,7 +3130,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E47" t="str">
-        <v>RETOUR_AFZENDER</v>
+        <v>RETOUR_AFZENDER_PROCEDURESTUK</v>
       </c>
       <c r="F47" t="str">
         <v>Retour afzender</v>
@@ -3192,7 +3192,7 @@
         <v>SCHR_ANVRD_BEG_BRIEF</v>
       </c>
       <c r="F48" t="str">
-        <v>Begeleidende brief bij schrapping aanvaard beslissingsstuk</v>
+        <v>Begeleidende brief bij schrapping aanvaard</v>
       </c>
       <c r="G48" t="str">
         <v>null</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/verwaarlozing/verwaarlozing.xlsx
@@ -2292,22 +2292,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard_begeleidende_brief</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard</v>
       </c>
       <c r="D33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E33" t="str">
-        <v>SCHR_NANVRD</v>
+        <v>SCHR_ANVRD_BEG_BRIEF</v>
       </c>
       <c r="F33" t="str">
-        <v>Schrapping niet aanvaard</v>
+        <v>Begeleidende brief bij schrapping aanvaard</v>
       </c>
       <c r="G33" t="str">
         <v>null</v>
@@ -2351,22 +2351,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="D34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E34" t="str">
-        <v>SCHR_NANVRD_BEG_BRIEF</v>
+        <v>SCHR_NANVRD</v>
       </c>
       <c r="F34" t="str">
-        <v>Begeleidende brief bij schrapping niet aanvaard</v>
+        <v>Schrapping niet aanvaard</v>
       </c>
       <c r="G34" t="str">
         <v>null</v>
@@ -2410,22 +2410,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard</v>
       </c>
       <c r="D35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E35" t="str">
-        <v>BER_INGWD</v>
+        <v>SCHR_NANVRD_BEG_BRIEF</v>
       </c>
       <c r="F35" t="str">
-        <v>Beroep ingewilligd</v>
+        <v>Begeleidende brief bij schrapping niet aanvaard</v>
       </c>
       <c r="G35" t="str">
         <v>null</v>
@@ -2469,22 +2469,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="D36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E36" t="str">
-        <v>BER_INGWD_BEG_BRIEF</v>
+        <v>BER_INGWD</v>
       </c>
       <c r="F36" t="str">
-        <v>Begeleidende brief bij beroep ingewilligd</v>
+        <v>Beroep ingewilligd</v>
       </c>
       <c r="G36" t="str">
         <v>null</v>
@@ -2528,22 +2528,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd</v>
       </c>
       <c r="D37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E37" t="str">
-        <v>BER_ON</v>
+        <v>BER_INGWD_BEG_BRIEF</v>
       </c>
       <c r="F37" t="str">
-        <v>Beroep onontvankelijk verklaard</v>
+        <v>Begeleidende brief bij beroep ingewilligd</v>
       </c>
       <c r="G37" t="str">
         <v>null</v>
@@ -2587,22 +2587,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="D38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E38" t="str">
-        <v>BER_ON_BEG_BRIEF</v>
+        <v>BER_ON</v>
       </c>
       <c r="F38" t="str">
-        <v>Begeleidende brief bij beroep onontvankelijk verklaard</v>
+        <v>Beroep onontvankelijk verklaard</v>
       </c>
       <c r="G38" t="str">
         <v>null</v>
@@ -2646,22 +2646,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard</v>
       </c>
       <c r="D39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E39" t="str">
-        <v>BER_VERWN</v>
+        <v>BER_ON_BEG_BRIEF</v>
       </c>
       <c r="F39" t="str">
-        <v>Beroep verworpen</v>
+        <v>Begeleidende brief bij beroep onontvankelijk verklaard</v>
       </c>
       <c r="G39" t="str">
         <v>null</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="D40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E40" t="str">
-        <v>BER_VERWN_BEG_BRIEF</v>
+        <v>BER_VERWN</v>
       </c>
       <c r="F40" t="str">
-        <v>Begeleidende brief bij beroep verworpen</v>
+        <v>Beroep verworpen</v>
       </c>
       <c r="G40" t="str">
         <v>null</v>
@@ -2764,25 +2764,25 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen</v>
       </c>
       <c r="D41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E41" t="str">
-        <v>beslissingsstuk</v>
+        <v>BER_VERWN_BEG_BRIEF</v>
       </c>
       <c r="F41" t="str">
-        <v>Stuk dat voortkomt uit een beslissing</v>
+        <v>Begeleidende brief bij beroep verworpen</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+        <v>null</v>
       </c>
       <c r="H41" t="str">
         <v>null</v>
@@ -2791,19 +2791,19 @@
         <v>null</v>
       </c>
       <c r="J41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
+        <v>null</v>
       </c>
       <c r="N41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
+        <v>null</v>
       </c>
       <c r="O41" t="str">
         <v>null</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/foto</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2835,13 +2835,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E42" t="str">
-        <v>FOTO</v>
+        <v>beslissingsstuk</v>
       </c>
       <c r="F42" t="str">
-        <v>Foto</v>
+        <v>Stuk dat voortkomt uit een beslissing</v>
       </c>
       <c r="G42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="H42" t="str">
         <v>null</v>
@@ -2850,19 +2850,19 @@
         <v>null</v>
       </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+        <v>null</v>
       </c>
       <c r="K42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+        <v>null</v>
       </c>
       <c r="L42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief</v>
       </c>
       <c r="M42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief</v>
       </c>
       <c r="N42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_opschorting_heffing_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_niet_aanvaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_ingewilligd_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_onontvankelijk_verklaard_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beroep_tegen_registratie_verworpen_begeleidende_brief|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief</v>
       </c>
       <c r="O42" t="str">
         <v>null</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/foto</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2894,10 +2894,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E43" t="str">
-        <v>INKOMEND_PROCEDURESTUK</v>
+        <v>FOTO</v>
       </c>
       <c r="F43" t="str">
-        <v>Inkomend procedurestuk</v>
+        <v>Foto</v>
       </c>
       <c r="G43" t="str">
         <v>null</v>
@@ -2909,13 +2909,13 @@
         <v>null</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
       </c>
       <c r="K43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
       </c>
       <c r="L43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/stavingsstuk</v>
       </c>
       <c r="M43" t="str">
         <v>null</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2953,13 +2953,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E44" t="str">
-        <v>procedurestuk</v>
+        <v>INKOMEND_PROCEDURESTUK</v>
       </c>
       <c r="F44" t="str">
-        <v>Stuk gerelateerd aan een procedure</v>
+        <v>Inkomend procedurestuk</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
+        <v>null</v>
       </c>
       <c r="H44" t="str">
         <v>null</v>
@@ -2968,19 +2968,19 @@
         <v>null</v>
       </c>
       <c r="J44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="K44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="L44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="M44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
+        <v>null</v>
       </c>
       <c r="N44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
+        <v>null</v>
       </c>
       <c r="O44" t="str">
         <v>null</v>
@@ -3000,25 +3000,25 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris</v>
+        <v>null</v>
       </c>
       <c r="D45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E45" t="str">
-        <v>REGATT</v>
+        <v>procedurestuk</v>
       </c>
       <c r="F45" t="str">
-        <v>Registratieattest</v>
+        <v>Stuk gerelateerd aan een procedure</v>
       </c>
       <c r="G45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="H45" t="str">
         <v>null</v>
@@ -3027,19 +3027,19 @@
         <v>null</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+        <v>null</v>
       </c>
       <c r="K45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+        <v>null</v>
       </c>
       <c r="L45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
       </c>
       <c r="M45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
       </c>
       <c r="N45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/inkomend_procedurestuk|https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
       </c>
       <c r="O45" t="str">
         <v>null</v>
@@ -3059,22 +3059,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/beslissing/geregistreerd_in_inventaris</v>
       </c>
       <c r="D46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E46" t="str">
-        <v>REGATT_BEG_BRIEF</v>
+        <v>REGATT</v>
       </c>
       <c r="F46" t="str">
-        <v>Begeleidende brief bij een registratieattest</v>
+        <v>Registratieattest</v>
       </c>
       <c r="G46" t="str">
         <v>null</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/registratieattest_begeleidende_brief</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3130,10 +3130,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E47" t="str">
-        <v>RETOUR_AFZENDER_PROCEDURESTUK</v>
+        <v>REGATT_BEG_BRIEF</v>
       </c>
       <c r="F47" t="str">
-        <v>Retour afzender</v>
+        <v>Begeleidende brief bij een registratieattest</v>
       </c>
       <c r="G47" t="str">
         <v>null</v>
@@ -3145,13 +3145,13 @@
         <v>null</v>
       </c>
       <c r="J47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="K47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="L47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
       </c>
       <c r="M47" t="str">
         <v>null</v>
@@ -3177,22 +3177,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/schrapping_aanvaard_begeleidende_brief</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/retour_afzender_procedurestuk</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/aanvraag_schrapping_aanvaard</v>
+        <v>null</v>
       </c>
       <c r="D48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/leegstand/stuk</v>
       </c>
       <c r="E48" t="str">
-        <v>SCHR_ANVRD_BEG_BRIEF</v>
+        <v>RETOUR_AFZENDER_PROCEDURESTUK</v>
       </c>
       <c r="F48" t="str">
-        <v>Begeleidende brief bij schrapping aanvaard</v>
+        <v>Retour afzender</v>
       </c>
       <c r="G48" t="str">
         <v>null</v>
@@ -3204,13 +3204,13 @@
         <v>null</v>
       </c>
       <c r="J48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="K48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="L48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/beslissingsstuk</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/leegstand/stuk/procedurestuk</v>
       </c>
       <c r="M48" t="str">
         <v>null</v>
